--- a/BackTest/2019-10-06 BackTest LINK.xlsx
+++ b/BackTest/2019-10-06 BackTest LINK.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>54</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>39.62264150943396</v>
+      </c>
       <c r="L12" t="n">
         <v>2347.6</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>55</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>15.78947368421053</v>
+      </c>
       <c r="L13" t="n">
         <v>2349.8</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>57</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>37.5</v>
+      </c>
       <c r="L14" t="n">
         <v>2350.2</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>57</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>62.96296296296296</v>
+      </c>
       <c r="L15" t="n">
         <v>2351.4</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>59</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>60</v>
+      </c>
       <c r="L16" t="n">
         <v>2353.3</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>64</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>85.18518518518519</v>
+      </c>
       <c r="L17" t="n">
         <v>2355.3</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>64</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>80</v>
+      </c>
       <c r="L18" t="n">
         <v>2357.6</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>65</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>71.42857142857143</v>
+      </c>
       <c r="L19" t="n">
         <v>2359.1</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>65</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>64.70588235294117</v>
+      </c>
       <c r="L20" t="n">
         <v>2360.6</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>70</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
       <c r="L21" t="n">
         <v>2361.2</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>70</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-6.666666666666667</v>
+      </c>
       <c r="L22" t="n">
         <v>2361.2</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>71</v>
       </c>
       <c r="K23" t="n">
-        <v>28.57142857142857</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>2361</v>
@@ -1466,7 +1488,7 @@
         <v>80</v>
       </c>
       <c r="K24" t="n">
-        <v>20.63492063492063</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="L24" t="n">
         <v>2361.9</v>
@@ -1515,7 +1537,7 @@
         <v>83</v>
       </c>
       <c r="K25" t="n">
-        <v>31.03448275862069</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L25" t="n">
         <v>2362.5</v>
@@ -1564,7 +1586,7 @@
         <v>87</v>
       </c>
       <c r="K26" t="n">
-        <v>33.33333333333333</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L26" t="n">
         <v>2362.5</v>
@@ -1613,7 +1635,7 @@
         <v>88</v>
       </c>
       <c r="K27" t="n">
-        <v>25.92592592592592</v>
+        <v>-25</v>
       </c>
       <c r="L27" t="n">
         <v>2361.9</v>
@@ -1662,7 +1684,7 @@
         <v>88</v>
       </c>
       <c r="K28" t="n">
-        <v>33.33333333333333</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L28" t="n">
         <v>2361.3</v>
@@ -1711,7 +1733,7 @@
         <v>99</v>
       </c>
       <c r="K29" t="n">
-        <v>-1.818181818181818</v>
+        <v>-47.05882352941176</v>
       </c>
       <c r="L29" t="n">
         <v>2359.7</v>
@@ -1760,7 +1782,7 @@
         <v>102</v>
       </c>
       <c r="K30" t="n">
-        <v>-6.896551724137931</v>
+        <v>-43.75</v>
       </c>
       <c r="L30" t="n">
         <v>2357.8</v>
@@ -1809,7 +1831,7 @@
         <v>106</v>
       </c>
       <c r="K31" t="n">
-        <v>-6.896551724137931</v>
+        <v>-27.77777777777778</v>
       </c>
       <c r="L31" t="n">
         <v>2356.8</v>
@@ -1860,7 +1882,7 @@
         <v>109</v>
       </c>
       <c r="K32" t="n">
-        <v>-23.63636363636364</v>
+        <v>-31.57894736842105</v>
       </c>
       <c r="L32" t="n">
         <v>2355.5</v>
@@ -1911,7 +1933,7 @@
         <v>110</v>
       </c>
       <c r="K33" t="n">
-        <v>-27.27272727272727</v>
+        <v>-73.33333333333333</v>
       </c>
       <c r="L33" t="n">
         <v>2354.2</v>
@@ -1962,7 +1984,7 @@
         <v>110</v>
       </c>
       <c r="K34" t="n">
-        <v>-24.52830188679245</v>
+        <v>-70.37037037037037</v>
       </c>
       <c r="L34" t="n">
         <v>2352</v>
@@ -2013,7 +2035,7 @@
         <v>121</v>
       </c>
       <c r="K35" t="n">
-        <v>-3.125</v>
+        <v>-11.76470588235294</v>
       </c>
       <c r="L35" t="n">
         <v>2351.2</v>
@@ -2064,7 +2086,7 @@
         <v>123</v>
       </c>
       <c r="K36" t="n">
-        <v>-9.375</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L36" t="n">
         <v>2350.6</v>
@@ -2115,7 +2137,7 @@
         <v>125</v>
       </c>
       <c r="K37" t="n">
-        <v>-21.31147540983606</v>
+        <v>-18.91891891891892</v>
       </c>
       <c r="L37" t="n">
         <v>2349.9</v>
@@ -2166,7 +2188,7 @@
         <v>125</v>
       </c>
       <c r="K38" t="n">
-        <v>-21.31147540983606</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L38" t="n">
         <v>2349.2</v>
@@ -2217,7 +2239,7 @@
         <v>125</v>
       </c>
       <c r="K39" t="n">
-        <v>-20</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="L39" t="n">
         <v>2349.6</v>
@@ -2268,7 +2290,7 @@
         <v>126</v>
       </c>
       <c r="K40" t="n">
-        <v>-21.31147540983606</v>
+        <v>10</v>
       </c>
       <c r="L40" t="n">
         <v>2350.2</v>
@@ -2319,7 +2341,7 @@
         <v>127</v>
       </c>
       <c r="K41" t="n">
-        <v>-12.28070175438596</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L41" t="n">
         <v>2350.5</v>
@@ -2370,7 +2392,7 @@
         <v>127</v>
       </c>
       <c r="K42" t="n">
-        <v>-12.28070175438596</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L42" t="n">
         <v>2351.1</v>
@@ -2421,7 +2443,7 @@
         <v>127</v>
       </c>
       <c r="K43" t="n">
-        <v>-10.71428571428571</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L43" t="n">
         <v>2351.8</v>
@@ -2472,7 +2494,7 @@
         <v>128</v>
       </c>
       <c r="K44" t="n">
-        <v>-33.33333333333333</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L44" t="n">
         <v>2352.4</v>
@@ -2523,7 +2545,7 @@
         <v>128</v>
       </c>
       <c r="K45" t="n">
-        <v>-28.88888888888889</v>
+        <v>-60</v>
       </c>
       <c r="L45" t="n">
         <v>2351.9</v>
@@ -2574,7 +2596,7 @@
         <v>129</v>
       </c>
       <c r="K46" t="n">
-        <v>-19.04761904761905</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>2351.7</v>
@@ -2625,7 +2647,7 @@
         <v>129</v>
       </c>
       <c r="K47" t="n">
-        <v>-17.07317073170732</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>2351.7</v>
@@ -2676,7 +2698,7 @@
         <v>129</v>
       </c>
       <c r="K48" t="n">
-        <v>-17.07317073170732</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>2351.7</v>
@@ -2727,7 +2749,7 @@
         <v>133</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L49" t="n">
         <v>2351.3</v>
@@ -2778,7 +2800,7 @@
         <v>137</v>
       </c>
       <c r="K50" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>2351.4</v>
@@ -2829,7 +2851,7 @@
         <v>139</v>
       </c>
       <c r="K51" t="n">
-        <v>3.03030303030303</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L51" t="n">
         <v>2351.2</v>
@@ -2931,7 +2953,7 @@
         <v>148</v>
       </c>
       <c r="K53" t="n">
-        <v>36.84210526315789</v>
+        <v>40</v>
       </c>
       <c r="L53" t="n">
         <v>2352.6</v>
@@ -2982,7 +3004,7 @@
         <v>153</v>
       </c>
       <c r="K54" t="n">
-        <v>44.18604651162791</v>
+        <v>52</v>
       </c>
       <c r="L54" t="n">
         <v>2353.9</v>
@@ -3033,7 +3055,7 @@
         <v>156</v>
       </c>
       <c r="K55" t="n">
-        <v>31.42857142857143</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L55" t="n">
         <v>2355.5</v>
@@ -3084,7 +3106,7 @@
         <v>156</v>
       </c>
       <c r="K56" t="n">
-        <v>39.39393939393939</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L56" t="n">
         <v>2357</v>
@@ -3135,7 +3157,7 @@
         <v>156</v>
       </c>
       <c r="K57" t="n">
-        <v>48.38709677419355</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L57" t="n">
         <v>2358.5</v>
@@ -3186,7 +3208,7 @@
         <v>158</v>
       </c>
       <c r="K58" t="n">
-        <v>51.51515151515152</v>
+        <v>84</v>
       </c>
       <c r="L58" t="n">
         <v>2360.2</v>
@@ -3237,7 +3259,7 @@
         <v>159</v>
       </c>
       <c r="K59" t="n">
-        <v>47.05882352941176</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="L59" t="n">
         <v>2362.2</v>
@@ -3288,7 +3310,7 @@
         <v>165</v>
       </c>
       <c r="K60" t="n">
-        <v>28.2051282051282</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="L60" t="n">
         <v>2363.2</v>
@@ -3339,7 +3361,7 @@
         <v>170</v>
       </c>
       <c r="K61" t="n">
-        <v>34.88372093023256</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L61" t="n">
         <v>2364.9</v>
@@ -3390,7 +3412,7 @@
         <v>172</v>
       </c>
       <c r="K62" t="n">
-        <v>37.77777777777778</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L62" t="n">
         <v>2365.9</v>
@@ -3441,7 +3463,7 @@
         <v>173</v>
       </c>
       <c r="K63" t="n">
-        <v>34.78260869565217</v>
+        <v>20</v>
       </c>
       <c r="L63" t="n">
         <v>2366.8</v>
@@ -3492,7 +3514,7 @@
         <v>174</v>
       </c>
       <c r="K64" t="n">
-        <v>39.1304347826087</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L64" t="n">
         <v>2367.3</v>
@@ -3543,7 +3565,7 @@
         <v>174</v>
       </c>
       <c r="K65" t="n">
-        <v>39.1304347826087</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L65" t="n">
         <v>2367.5</v>
@@ -3594,7 +3616,7 @@
         <v>175</v>
       </c>
       <c r="K66" t="n">
-        <v>34.78260869565217</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L66" t="n">
         <v>2367.6</v>
@@ -3645,7 +3667,7 @@
         <v>176</v>
       </c>
       <c r="K67" t="n">
-        <v>36.17021276595745</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>2367.8</v>
@@ -3696,7 +3718,7 @@
         <v>178</v>
       </c>
       <c r="K68" t="n">
-        <v>38.77551020408163</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L68" t="n">
         <v>2368</v>
@@ -3747,7 +3769,7 @@
         <v>187</v>
       </c>
       <c r="K69" t="n">
-        <v>59.25925925925925</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L69" t="n">
         <v>2369.2</v>
@@ -3798,7 +3820,7 @@
         <v>187</v>
       </c>
       <c r="K70" t="n">
-        <v>56.00000000000001</v>
+        <v>76.47058823529412</v>
       </c>
       <c r="L70" t="n">
         <v>2371</v>
@@ -3849,7 +3871,7 @@
         <v>187</v>
       </c>
       <c r="K71" t="n">
-        <v>62.5</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="L71" t="n">
         <v>2372.3</v>
@@ -3900,7 +3922,7 @@
         <v>189</v>
       </c>
       <c r="K72" t="n">
-        <v>46.34146341463415</v>
+        <v>62.5</v>
       </c>
       <c r="L72" t="n">
         <v>2373.2</v>
@@ -3951,7 +3973,7 @@
         <v>191</v>
       </c>
       <c r="K73" t="n">
-        <v>39.53488372093023</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L73" t="n">
         <v>2374</v>
@@ -4002,7 +4024,7 @@
         <v>191</v>
       </c>
       <c r="K74" t="n">
-        <v>31.57894736842105</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L74" t="n">
         <v>2374.7</v>
@@ -4053,7 +4075,7 @@
         <v>191</v>
       </c>
       <c r="K75" t="n">
-        <v>25.71428571428571</v>
+        <v>50</v>
       </c>
       <c r="L75" t="n">
         <v>2375.4</v>
@@ -4104,7 +4126,7 @@
         <v>191</v>
       </c>
       <c r="K76" t="n">
-        <v>25.71428571428571</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L76" t="n">
         <v>2376.2</v>
@@ -4155,7 +4177,7 @@
         <v>191</v>
       </c>
       <c r="K77" t="n">
-        <v>25.71428571428571</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L77" t="n">
         <v>2376.9</v>
@@ -4206,7 +4228,7 @@
         <v>192</v>
       </c>
       <c r="K78" t="n">
-        <v>17.64705882352941</v>
+        <v>-100</v>
       </c>
       <c r="L78" t="n">
         <v>2377.3</v>
@@ -4257,7 +4279,7 @@
         <v>192</v>
       </c>
       <c r="K79" t="n">
-        <v>21.21212121212121</v>
+        <v>-100</v>
       </c>
       <c r="L79" t="n">
         <v>2376.8</v>
@@ -4308,7 +4330,7 @@
         <v>192</v>
       </c>
       <c r="K80" t="n">
-        <v>48.14814814814815</v>
+        <v>-100</v>
       </c>
       <c r="L80" t="n">
         <v>2376.3</v>
@@ -4359,7 +4381,7 @@
         <v>194</v>
       </c>
       <c r="K81" t="n">
-        <v>25</v>
+        <v>-100</v>
       </c>
       <c r="L81" t="n">
         <v>2375.6</v>
@@ -4410,7 +4432,7 @@
         <v>201</v>
       </c>
       <c r="K82" t="n">
-        <v>-10.3448275862069</v>
+        <v>-100</v>
       </c>
       <c r="L82" t="n">
         <v>2374.4</v>
@@ -4461,7 +4483,7 @@
         <v>201</v>
       </c>
       <c r="K83" t="n">
-        <v>-7.142857142857142</v>
+        <v>-100</v>
       </c>
       <c r="L83" t="n">
         <v>2373.4</v>
@@ -4512,7 +4534,7 @@
         <v>202</v>
       </c>
       <c r="K84" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L84" t="n">
         <v>2372.3</v>
@@ -4563,7 +4585,7 @@
         <v>208</v>
       </c>
       <c r="K85" t="n">
-        <v>-29.41176470588236</v>
+        <v>-100</v>
       </c>
       <c r="L85" t="n">
         <v>2370.6</v>
@@ -4614,7 +4636,7 @@
         <v>220</v>
       </c>
       <c r="K86" t="n">
-        <v>-46.66666666666666</v>
+        <v>-100</v>
       </c>
       <c r="L86" t="n">
         <v>2367.7</v>
@@ -4665,7 +4687,7 @@
         <v>225</v>
       </c>
       <c r="K87" t="n">
-        <v>-34.69387755102041</v>
+        <v>-69.6969696969697</v>
       </c>
       <c r="L87" t="n">
         <v>2365.3</v>
@@ -4716,7 +4738,7 @@
         <v>230</v>
       </c>
       <c r="K88" t="n">
-        <v>-46.15384615384615</v>
+        <v>-73.68421052631578</v>
       </c>
       <c r="L88" t="n">
         <v>2362.5</v>
@@ -4767,7 +4789,7 @@
         <v>230</v>
       </c>
       <c r="K89" t="n">
-        <v>-76.74418604651163</v>
+        <v>-73.68421052631578</v>
       </c>
       <c r="L89" t="n">
         <v>2359.7</v>
@@ -4818,7 +4840,7 @@
         <v>239</v>
       </c>
       <c r="K90" t="n">
-        <v>-80.76923076923077</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L90" t="n">
         <v>2356</v>
@@ -4869,7 +4891,7 @@
         <v>248</v>
       </c>
       <c r="K91" t="n">
-        <v>-54.09836065573771</v>
+        <v>-40.42553191489361</v>
       </c>
       <c r="L91" t="n">
         <v>2353.4</v>
@@ -4920,7 +4942,7 @@
         <v>252</v>
       </c>
       <c r="K92" t="n">
-        <v>-42.85714285714285</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L92" t="n">
         <v>2351.9</v>
@@ -4971,7 +4993,7 @@
         <v>252</v>
       </c>
       <c r="K93" t="n">
-        <v>-40.98360655737705</v>
+        <v>-28</v>
       </c>
       <c r="L93" t="n">
         <v>2350.4</v>
@@ -5022,7 +5044,7 @@
         <v>253</v>
       </c>
       <c r="K94" t="n">
-        <v>-41.93548387096774</v>
+        <v>-20</v>
       </c>
       <c r="L94" t="n">
         <v>2348.9</v>
@@ -5073,7 +5095,7 @@
         <v>254</v>
       </c>
       <c r="K95" t="n">
-        <v>-42.85714285714285</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L95" t="n">
         <v>2347.9</v>
@@ -5124,7 +5146,7 @@
         <v>255</v>
       </c>
       <c r="K96" t="n">
-        <v>-40.625</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L96" t="n">
         <v>2348.2</v>
@@ -5175,7 +5197,7 @@
         <v>255</v>
       </c>
       <c r="K97" t="n">
-        <v>-40.625</v>
+        <v>12</v>
       </c>
       <c r="L97" t="n">
         <v>2348</v>
@@ -5226,7 +5248,7 @@
         <v>274</v>
       </c>
       <c r="K98" t="n">
-        <v>-7.317073170731707</v>
+        <v>50</v>
       </c>
       <c r="L98" t="n">
         <v>2350.2</v>
@@ -5277,7 +5299,7 @@
         <v>275</v>
       </c>
       <c r="K99" t="n">
-        <v>-8.433734939759036</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="L99" t="n">
         <v>2352.3</v>
@@ -5328,7 +5350,7 @@
         <v>276</v>
       </c>
       <c r="K100" t="n">
-        <v>-7.142857142857142</v>
+        <v>78.57142857142857</v>
       </c>
       <c r="L100" t="n">
         <v>2355.4</v>
@@ -5379,7 +5401,7 @@
         <v>276</v>
       </c>
       <c r="K101" t="n">
-        <v>-4.878048780487805</v>
+        <v>75</v>
       </c>
       <c r="L101" t="n">
         <v>2357.6</v>
@@ -5430,7 +5452,7 @@
         <v>276</v>
       </c>
       <c r="K102" t="n">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="L102" t="n">
         <v>2359.4</v>
@@ -5481,7 +5503,7 @@
         <v>284</v>
       </c>
       <c r="K103" t="n">
-        <v>-6.024096385542169</v>
+        <v>35.48387096774194</v>
       </c>
       <c r="L103" t="n">
         <v>2360.4</v>
@@ -5532,7 +5554,7 @@
         <v>284</v>
       </c>
       <c r="K104" t="n">
-        <v>-4.878048780487805</v>
+        <v>40</v>
       </c>
       <c r="L104" t="n">
         <v>2361.5</v>
@@ -5583,7 +5605,7 @@
         <v>288</v>
       </c>
       <c r="K105" t="n">
-        <v>7.5</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L105" t="n">
         <v>2363.1</v>
@@ -5634,7 +5656,7 @@
         <v>288</v>
       </c>
       <c r="K106" t="n">
-        <v>26.47058823529412</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L106" t="n">
         <v>2364.6</v>
@@ -5685,7 +5707,7 @@
         <v>288</v>
       </c>
       <c r="K107" t="n">
-        <v>20.63492063492063</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L107" t="n">
         <v>2366.1</v>
@@ -5736,7 +5758,7 @@
         <v>288</v>
       </c>
       <c r="K108" t="n">
-        <v>31.03448275862069</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L108" t="n">
         <v>2365.7</v>
@@ -5787,7 +5809,7 @@
         <v>288</v>
       </c>
       <c r="K109" t="n">
-        <v>31.03448275862069</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L109" t="n">
         <v>2365.4</v>
@@ -5838,7 +5860,7 @@
         <v>289</v>
       </c>
       <c r="K110" t="n">
-        <v>52</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L110" t="n">
         <v>2364.9</v>
@@ -5889,7 +5911,7 @@
         <v>290</v>
       </c>
       <c r="K111" t="n">
-        <v>42.85714285714285</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L111" t="n">
         <v>2364.5</v>
@@ -5940,7 +5962,7 @@
         <v>290</v>
       </c>
       <c r="K112" t="n">
-        <v>36.84210526315789</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L112" t="n">
         <v>2364.1</v>
@@ -5991,7 +6013,7 @@
         <v>290</v>
       </c>
       <c r="K113" t="n">
-        <v>36.84210526315789</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L113" t="n">
         <v>2364.5</v>
@@ -6042,7 +6064,7 @@
         <v>295</v>
       </c>
       <c r="K114" t="n">
-        <v>23.80952380952381</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L114" t="n">
         <v>2364.4</v>
@@ -6093,7 +6115,7 @@
         <v>295</v>
       </c>
       <c r="K115" t="n">
-        <v>26.82926829268293</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L115" t="n">
         <v>2363.9</v>
@@ -6144,7 +6166,7 @@
         <v>300</v>
       </c>
       <c r="K116" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L116" t="n">
         <v>2363.9</v>
@@ -6195,7 +6217,7 @@
         <v>302</v>
       </c>
       <c r="K117" t="n">
-        <v>27.65957446808511</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L117" t="n">
         <v>2363.7</v>
@@ -6246,7 +6268,7 @@
         <v>302</v>
       </c>
       <c r="K118" t="n">
-        <v>-21.42857142857143</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L118" t="n">
         <v>2363.5</v>
@@ -6297,7 +6319,7 @@
         <v>302</v>
       </c>
       <c r="K119" t="n">
-        <v>-18.51851851851852</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L119" t="n">
         <v>2363.3</v>
@@ -6348,7 +6370,7 @@
         <v>302</v>
       </c>
       <c r="K120" t="n">
-        <v>-23.07692307692308</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L120" t="n">
         <v>2363.2</v>
@@ -6399,7 +6421,7 @@
         <v>305</v>
       </c>
       <c r="K121" t="n">
-        <v>-31.03448275862069</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L121" t="n">
         <v>2362.7</v>
@@ -6450,7 +6472,7 @@
         <v>306</v>
       </c>
       <c r="K122" t="n">
-        <v>-33.33333333333333</v>
+        <v>-37.5</v>
       </c>
       <c r="L122" t="n">
         <v>2362.1</v>
@@ -6501,7 +6523,7 @@
         <v>311</v>
       </c>
       <c r="K123" t="n">
-        <v>11.11111111111111</v>
+        <v>25</v>
       </c>
       <c r="L123" t="n">
         <v>2362</v>
@@ -6552,7 +6574,7 @@
         <v>312</v>
       </c>
       <c r="K124" t="n">
-        <v>14.28571428571428</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L124" t="n">
         <v>2362.5</v>
@@ -6654,7 +6676,7 @@
         <v>314</v>
       </c>
       <c r="K126" t="n">
-        <v>7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L126" t="n">
         <v>2363.2</v>
@@ -6705,7 +6727,7 @@
         <v>316</v>
       </c>
       <c r="K127" t="n">
-        <v>14.28571428571428</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L127" t="n">
         <v>2363.8</v>
@@ -6756,7 +6778,7 @@
         <v>316</v>
       </c>
       <c r="K128" t="n">
-        <v>14.28571428571428</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L128" t="n">
         <v>2364.4</v>
@@ -6807,7 +6829,7 @@
         <v>316</v>
       </c>
       <c r="K129" t="n">
-        <v>14.28571428571428</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L129" t="n">
         <v>2365</v>
@@ -6858,7 +6880,7 @@
         <v>318</v>
       </c>
       <c r="K130" t="n">
-        <v>24.13793103448276</v>
+        <v>84.61538461538461</v>
       </c>
       <c r="L130" t="n">
         <v>2365.8</v>
@@ -6909,7 +6931,7 @@
         <v>327</v>
       </c>
       <c r="K131" t="n">
-        <v>40.54054054054054</v>
+        <v>100</v>
       </c>
       <c r="L131" t="n">
         <v>2367.8</v>
@@ -6960,7 +6982,7 @@
         <v>327</v>
       </c>
       <c r="K132" t="n">
-        <v>40.54054054054054</v>
+        <v>100</v>
       </c>
       <c r="L132" t="n">
         <v>2369.9</v>
@@ -7011,7 +7033,7 @@
         <v>331</v>
       </c>
       <c r="K133" t="n">
-        <v>46.34146341463415</v>
+        <v>100</v>
       </c>
       <c r="L133" t="n">
         <v>2371.9</v>
@@ -7062,7 +7084,7 @@
         <v>331</v>
       </c>
       <c r="K134" t="n">
-        <v>66.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L134" t="n">
         <v>2373.8</v>
@@ -7113,7 +7135,7 @@
         <v>331</v>
       </c>
       <c r="K135" t="n">
-        <v>66.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L135" t="n">
         <v>2375.7</v>
@@ -7164,7 +7186,7 @@
         <v>332</v>
       </c>
       <c r="K136" t="n">
-        <v>62.5</v>
+        <v>100</v>
       </c>
       <c r="L136" t="n">
         <v>2377.5</v>
@@ -7215,7 +7237,7 @@
         <v>337</v>
       </c>
       <c r="K137" t="n">
-        <v>77.14285714285715</v>
+        <v>100</v>
       </c>
       <c r="L137" t="n">
         <v>2379.6</v>
@@ -7266,7 +7288,7 @@
         <v>337</v>
       </c>
       <c r="K138" t="n">
-        <v>77.14285714285715</v>
+        <v>100</v>
       </c>
       <c r="L138" t="n">
         <v>2381.7</v>
@@ -7317,7 +7339,7 @@
         <v>340</v>
       </c>
       <c r="K139" t="n">
-        <v>63.1578947368421</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="L139" t="n">
         <v>2383.5</v>
@@ -7368,7 +7390,7 @@
         <v>340</v>
       </c>
       <c r="K140" t="n">
-        <v>63.1578947368421</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L140" t="n">
         <v>2385.1</v>
@@ -7419,7 +7441,7 @@
         <v>346</v>
       </c>
       <c r="K141" t="n">
-        <v>51.21951219512195</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L141" t="n">
         <v>2385.2</v>
@@ -7470,7 +7492,7 @@
         <v>346</v>
       </c>
       <c r="K142" t="n">
-        <v>55.00000000000001</v>
+        <v>-20</v>
       </c>
       <c r="L142" t="n">
         <v>2385.3</v>
@@ -7521,7 +7543,7 @@
         <v>348</v>
       </c>
       <c r="K143" t="n">
-        <v>51.35135135135135</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L143" t="n">
         <v>2385.2</v>
@@ -7572,7 +7594,7 @@
         <v>348</v>
       </c>
       <c r="K144" t="n">
-        <v>50</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L144" t="n">
         <v>2385.1</v>
@@ -7623,7 +7645,7 @@
         <v>349</v>
       </c>
       <c r="K145" t="n">
-        <v>45.94594594594595</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L145" t="n">
         <v>2384.9</v>
@@ -7674,7 +7696,7 @@
         <v>349</v>
       </c>
       <c r="K146" t="n">
-        <v>42.85714285714285</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L146" t="n">
         <v>2384.6</v>
@@ -7725,7 +7747,7 @@
         <v>350</v>
       </c>
       <c r="K147" t="n">
-        <v>41.17647058823529</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L147" t="n">
         <v>2383.9</v>
@@ -7776,7 +7798,7 @@
         <v>353</v>
       </c>
       <c r="K148" t="n">
-        <v>45.94594594594595</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L148" t="n">
         <v>2383.5</v>
@@ -7827,7 +7849,7 @@
         <v>354</v>
       </c>
       <c r="K149" t="n">
-        <v>47.36842105263158</v>
+        <v>0</v>
       </c>
       <c r="L149" t="n">
         <v>2383.5</v>
@@ -7878,7 +7900,7 @@
         <v>354</v>
       </c>
       <c r="K150" t="n">
-        <v>44.44444444444444</v>
+        <v>75</v>
       </c>
       <c r="L150" t="n">
         <v>2383.5</v>
@@ -7929,7 +7951,7 @@
         <v>355</v>
       </c>
       <c r="K151" t="n">
-        <v>28.57142857142857</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L151" t="n">
         <v>2384.2</v>
@@ -7980,7 +8002,7 @@
         <v>357</v>
       </c>
       <c r="K152" t="n">
-        <v>33.33333333333333</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L152" t="n">
         <v>2385.1</v>
@@ -8031,7 +8053,7 @@
         <v>357</v>
       </c>
       <c r="K153" t="n">
-        <v>23.07692307692308</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L153" t="n">
         <v>2385.8</v>
@@ -8082,7 +8104,7 @@
         <v>362</v>
       </c>
       <c r="K154" t="n">
-        <v>35.48387096774194</v>
+        <v>100</v>
       </c>
       <c r="L154" t="n">
         <v>2387</v>
@@ -8133,7 +8155,7 @@
         <v>365</v>
       </c>
       <c r="K155" t="n">
-        <v>41.17647058823529</v>
+        <v>100</v>
       </c>
       <c r="L155" t="n">
         <v>2388.6</v>
@@ -8184,7 +8206,7 @@
         <v>367</v>
       </c>
       <c r="K156" t="n">
-        <v>42.85714285714285</v>
+        <v>100</v>
       </c>
       <c r="L156" t="n">
         <v>2390.4</v>
@@ -8235,7 +8257,7 @@
         <v>369</v>
       </c>
       <c r="K157" t="n">
-        <v>37.5</v>
+        <v>100</v>
       </c>
       <c r="L157" t="n">
         <v>2392.3</v>
@@ -8286,7 +8308,7 @@
         <v>371</v>
       </c>
       <c r="K158" t="n">
-        <v>41.17647058823529</v>
+        <v>100</v>
       </c>
       <c r="L158" t="n">
         <v>2394.1</v>
@@ -8337,7 +8359,7 @@
         <v>371</v>
       </c>
       <c r="K159" t="n">
-        <v>54.83870967741935</v>
+        <v>100</v>
       </c>
       <c r="L159" t="n">
         <v>2395.8</v>
@@ -8388,7 +8410,7 @@
         <v>372</v>
       </c>
       <c r="K160" t="n">
-        <v>56.25</v>
+        <v>100</v>
       </c>
       <c r="L160" t="n">
         <v>2397.6</v>
@@ -8439,7 +8461,7 @@
         <v>372</v>
       </c>
       <c r="K161" t="n">
-        <v>92.30769230769231</v>
+        <v>100</v>
       </c>
       <c r="L161" t="n">
         <v>2399.3</v>
@@ -8490,7 +8512,7 @@
         <v>372</v>
       </c>
       <c r="K162" t="n">
-        <v>92.30769230769231</v>
+        <v>100</v>
       </c>
       <c r="L162" t="n">
         <v>2400.8</v>
@@ -8541,7 +8563,7 @@
         <v>383</v>
       </c>
       <c r="K163" t="n">
-        <v>31.42857142857143</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L163" t="n">
         <v>2401.2</v>
@@ -8592,7 +8614,7 @@
         <v>389</v>
       </c>
       <c r="K164" t="n">
-        <v>41.46341463414634</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L164" t="n">
         <v>2401.7</v>
@@ -8643,7 +8665,7 @@
         <v>390</v>
       </c>
       <c r="K165" t="n">
-        <v>41.46341463414634</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L165" t="n">
         <v>2401.8</v>
@@ -8694,7 +8716,7 @@
         <v>395</v>
       </c>
       <c r="K166" t="n">
-        <v>47.82608695652174</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L166" t="n">
         <v>2402.2</v>
@@ -8745,7 +8767,7 @@
         <v>400</v>
       </c>
       <c r="K167" t="n">
-        <v>32</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L167" t="n">
         <v>2401.9</v>
@@ -8796,7 +8818,7 @@
         <v>406</v>
       </c>
       <c r="K168" t="n">
-        <v>35.84905660377358</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="L168" t="n">
         <v>2402</v>
@@ -8847,7 +8869,7 @@
         <v>408</v>
       </c>
       <c r="K169" t="n">
-        <v>29.62962962962963</v>
+        <v>-5.555555555555555</v>
       </c>
       <c r="L169" t="n">
         <v>2401.9</v>
@@ -8898,7 +8920,7 @@
         <v>410</v>
       </c>
       <c r="K170" t="n">
-        <v>32.14285714285715</v>
+        <v>0</v>
       </c>
       <c r="L170" t="n">
         <v>2401.9</v>
@@ -8949,7 +8971,7 @@
         <v>410</v>
       </c>
       <c r="K171" t="n">
-        <v>30.90909090909091</v>
+        <v>0</v>
       </c>
       <c r="L171" t="n">
         <v>2401.9</v>
@@ -9000,7 +9022,7 @@
         <v>410</v>
       </c>
       <c r="K172" t="n">
-        <v>28.30188679245283</v>
+        <v>40.74074074074074</v>
       </c>
       <c r="L172" t="n">
         <v>2401.9</v>
@@ -9051,7 +9073,7 @@
         <v>410</v>
       </c>
       <c r="K173" t="n">
-        <v>28.30188679245283</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L173" t="n">
         <v>2403</v>
@@ -9102,7 +9124,7 @@
         <v>413</v>
       </c>
       <c r="K174" t="n">
-        <v>25.49019607843137</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="L174" t="n">
         <v>2403.8</v>
@@ -9153,7 +9175,7 @@
         <v>413</v>
       </c>
       <c r="K175" t="n">
-        <v>20.83333333333334</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L175" t="n">
         <v>2404.7</v>
@@ -9204,7 +9226,7 @@
         <v>413</v>
       </c>
       <c r="K176" t="n">
-        <v>17.39130434782609</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L176" t="n">
         <v>2405.1</v>
@@ -9255,7 +9277,7 @@
         <v>417</v>
       </c>
       <c r="K177" t="n">
-        <v>4.166666666666666</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L177" t="n">
         <v>2405.6</v>
@@ -9306,7 +9328,7 @@
         <v>419</v>
       </c>
       <c r="K178" t="n">
-        <v>4.166666666666666</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L178" t="n">
         <v>2405.7</v>
@@ -9357,7 +9379,7 @@
         <v>419</v>
       </c>
       <c r="K179" t="n">
-        <v>4.166666666666666</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L179" t="n">
         <v>2406</v>
@@ -9408,7 +9430,7 @@
         <v>423</v>
       </c>
       <c r="K180" t="n">
-        <v>-5.88235294117647</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L180" t="n">
         <v>2405.7</v>
@@ -9459,7 +9481,7 @@
         <v>423</v>
       </c>
       <c r="K181" t="n">
-        <v>-5.88235294117647</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L181" t="n">
         <v>2405.4</v>
@@ -9510,7 +9532,7 @@
         <v>423</v>
       </c>
       <c r="K182" t="n">
-        <v>-5.88235294117647</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L182" t="n">
         <v>2405.1</v>
@@ -9561,7 +9583,7 @@
         <v>427</v>
       </c>
       <c r="K183" t="n">
-        <v>27.27272727272727</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L183" t="n">
         <v>2405.2</v>
@@ -9612,7 +9634,7 @@
         <v>429</v>
       </c>
       <c r="K184" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L184" t="n">
         <v>2405.2</v>
@@ -9663,7 +9685,7 @@
         <v>429</v>
       </c>
       <c r="K185" t="n">
-        <v>23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L185" t="n">
         <v>2405.2</v>
@@ -9714,7 +9736,7 @@
         <v>430</v>
       </c>
       <c r="K186" t="n">
-        <v>14.28571428571428</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L186" t="n">
         <v>2405.3</v>
@@ -9765,7 +9787,7 @@
         <v>436</v>
       </c>
       <c r="K187" t="n">
-        <v>44.44444444444444</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L187" t="n">
         <v>2406.4</v>
@@ -9816,7 +9838,7 @@
         <v>440</v>
       </c>
       <c r="K188" t="n">
-        <v>41.17647058823529</v>
+        <v>61.90476190476191</v>
       </c>
       <c r="L188" t="n">
         <v>2407.7</v>
@@ -9867,7 +9889,7 @@
         <v>440</v>
       </c>
       <c r="K189" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L189" t="n">
         <v>2409</v>
@@ -9918,7 +9940,7 @@
         <v>441</v>
       </c>
       <c r="K190" t="n">
-        <v>48.38709677419355</v>
+        <v>100</v>
       </c>
       <c r="L190" t="n">
         <v>2410.8</v>
@@ -9969,7 +9991,7 @@
         <v>442</v>
       </c>
       <c r="K191" t="n">
-        <v>43.75</v>
+        <v>89.47368421052632</v>
       </c>
       <c r="L191" t="n">
         <v>2412.5</v>
@@ -10020,7 +10042,7 @@
         <v>442</v>
       </c>
       <c r="K192" t="n">
-        <v>43.75</v>
+        <v>86.66666666666667</v>
       </c>
       <c r="L192" t="n">
         <v>2414.2</v>
@@ -10071,7 +10093,7 @@
         <v>442</v>
       </c>
       <c r="K193" t="n">
-        <v>43.75</v>
+        <v>84.61538461538461</v>
       </c>
       <c r="L193" t="n">
         <v>2415.5</v>
@@ -10122,7 +10144,7 @@
         <v>442</v>
       </c>
       <c r="K194" t="n">
-        <v>37.93103448275862</v>
+        <v>84.61538461538461</v>
       </c>
       <c r="L194" t="n">
         <v>2416.6</v>
@@ -10173,7 +10195,7 @@
         <v>442</v>
       </c>
       <c r="K195" t="n">
-        <v>37.93103448275862</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="L195" t="n">
         <v>2417.7</v>
@@ -10224,7 +10246,7 @@
         <v>447</v>
       </c>
       <c r="K196" t="n">
-        <v>17.64705882352941</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L196" t="n">
         <v>2418.2</v>
@@ -10275,7 +10297,7 @@
         <v>447</v>
       </c>
       <c r="K197" t="n">
-        <v>33.33333333333333</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L197" t="n">
         <v>2418.1</v>
@@ -10326,7 +10348,7 @@
         <v>447</v>
       </c>
       <c r="K198" t="n">
-        <v>28.57142857142857</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L198" t="n">
         <v>2417.6</v>
@@ -10377,7 +10399,7 @@
         <v>451</v>
       </c>
       <c r="K199" t="n">
-        <v>37.5</v>
+        <v>-20</v>
       </c>
       <c r="L199" t="n">
         <v>2417.5</v>
@@ -10428,7 +10450,7 @@
         <v>457</v>
       </c>
       <c r="K200" t="n">
-        <v>29.41176470588236</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L200" t="n">
         <v>2416.7</v>
@@ -10479,7 +10501,7 @@
         <v>463</v>
       </c>
       <c r="K201" t="n">
-        <v>40</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L201" t="n">
         <v>2416.6</v>
@@ -10530,7 +10552,7 @@
         <v>468</v>
       </c>
       <c r="K202" t="n">
-        <v>24.44444444444444</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L202" t="n">
         <v>2416</v>
@@ -10581,7 +10603,7 @@
         <v>475</v>
       </c>
       <c r="K203" t="n">
-        <v>0</v>
+        <v>-39.39393939393939</v>
       </c>
       <c r="L203" t="n">
         <v>2414.7</v>
@@ -10632,7 +10654,7 @@
         <v>476</v>
       </c>
       <c r="K204" t="n">
-        <v>-6.382978723404255</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L204" t="n">
         <v>2413.3</v>
@@ -10683,7 +10705,7 @@
         <v>479</v>
       </c>
       <c r="K205" t="n">
-        <v>-12</v>
+        <v>-37.5</v>
       </c>
       <c r="L205" t="n">
         <v>2411.6</v>
@@ -10734,7 +10756,7 @@
         <v>479</v>
       </c>
       <c r="K206" t="n">
-        <v>-14.28571428571428</v>
+        <v>-37.5</v>
       </c>
       <c r="L206" t="n">
         <v>2410.4</v>
@@ -10785,7 +10807,7 @@
         <v>481</v>
       </c>
       <c r="K207" t="n">
-        <v>-33.33333333333333</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L207" t="n">
         <v>2409</v>
@@ -10836,7 +10858,7 @@
         <v>483</v>
       </c>
       <c r="K208" t="n">
-        <v>-39.53488372093023</v>
+        <v>-50</v>
       </c>
       <c r="L208" t="n">
         <v>2407.8</v>
@@ -10887,7 +10909,7 @@
         <v>484</v>
       </c>
       <c r="K209" t="n">
-        <v>-40.90909090909091</v>
+        <v>-40.74074074074074</v>
       </c>
       <c r="L209" t="n">
         <v>2406.1</v>
@@ -10938,7 +10960,7 @@
         <v>488</v>
       </c>
       <c r="K210" t="n">
-        <v>-31.91489361702128</v>
+        <v>-52</v>
       </c>
       <c r="L210" t="n">
         <v>2405.4</v>
@@ -10989,7 +11011,7 @@
         <v>492</v>
       </c>
       <c r="K211" t="n">
-        <v>-36</v>
+        <v>-50</v>
       </c>
       <c r="L211" t="n">
         <v>2403.7</v>
@@ -11040,7 +11062,7 @@
         <v>499</v>
       </c>
       <c r="K212" t="n">
-        <v>-19.29824561403509</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L212" t="n">
         <v>2403.2</v>
@@ -11091,7 +11113,7 @@
         <v>507</v>
       </c>
       <c r="K213" t="n">
-        <v>-29.23076923076923</v>
+        <v>-16.12903225806452</v>
       </c>
       <c r="L213" t="n">
         <v>2402.6</v>
@@ -11142,7 +11164,7 @@
         <v>524</v>
       </c>
       <c r="K214" t="n">
-        <v>-43.90243902439025</v>
+        <v>-42.22222222222222</v>
       </c>
       <c r="L214" t="n">
         <v>2400.4</v>
@@ -11193,7 +11215,7 @@
         <v>528</v>
       </c>
       <c r="K215" t="n">
-        <v>-46.51162790697674</v>
+        <v>-46.93877551020408</v>
       </c>
       <c r="L215" t="n">
         <v>2398.1</v>
@@ -11244,7 +11266,7 @@
         <v>535</v>
       </c>
       <c r="K216" t="n">
-        <v>-47.72727272727273</v>
+        <v>-51.85185185185185</v>
       </c>
       <c r="L216" t="n">
         <v>2395.1</v>
@@ -11295,7 +11317,7 @@
         <v>542</v>
       </c>
       <c r="K217" t="n">
-        <v>-51.57894736842105</v>
+        <v>-62.71186440677966</v>
       </c>
       <c r="L217" t="n">
         <v>2391.6</v>
@@ -11346,7 +11368,7 @@
         <v>548</v>
       </c>
       <c r="K218" t="n">
-        <v>-54.45544554455446</v>
+        <v>-65.625</v>
       </c>
       <c r="L218" t="n">
         <v>2387.3</v>
@@ -11397,7 +11419,7 @@
         <v>555</v>
       </c>
       <c r="K219" t="n">
-        <v>-50</v>
+        <v>-58.2089552238806</v>
       </c>
       <c r="L219" t="n">
         <v>2383.8</v>
@@ -11448,7 +11470,7 @@
         <v>560</v>
       </c>
       <c r="K220" t="n">
-        <v>-39.80582524271845</v>
+        <v>-44.11764705882353</v>
       </c>
       <c r="L220" t="n">
         <v>2380.4</v>
@@ -11499,7 +11521,7 @@
         <v>571</v>
       </c>
       <c r="K221" t="n">
-        <v>-33.33333333333333</v>
+        <v>-36.11111111111111</v>
       </c>
       <c r="L221" t="n">
         <v>2378.5</v>
@@ -11601,7 +11623,7 @@
         <v>578</v>
       </c>
       <c r="K223" t="n">
-        <v>-30.09708737864078</v>
+        <v>-14.81481481481481</v>
       </c>
       <c r="L223" t="n">
         <v>2372.9</v>
@@ -11652,7 +11674,7 @@
         <v>578</v>
       </c>
       <c r="K224" t="n">
-        <v>-29.41176470588236</v>
+        <v>-8</v>
       </c>
       <c r="L224" t="n">
         <v>2372.1</v>
@@ -11703,7 +11725,7 @@
         <v>583</v>
       </c>
       <c r="K225" t="n">
-        <v>-30.76923076923077</v>
+        <v>-4.166666666666666</v>
       </c>
       <c r="L225" t="n">
         <v>2371.2</v>
@@ -11754,7 +11776,7 @@
         <v>584</v>
       </c>
       <c r="K226" t="n">
-        <v>-31.42857142857143</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="L226" t="n">
         <v>2370.9</v>
@@ -11805,7 +11827,7 @@
         <v>585</v>
       </c>
       <c r="K227" t="n">
-        <v>-28.84615384615384</v>
+        <v>29.72972972972973</v>
       </c>
       <c r="L227" t="n">
         <v>2371.4</v>
@@ -11856,7 +11878,7 @@
         <v>590</v>
       </c>
       <c r="K228" t="n">
-        <v>-25.23364485981308</v>
+        <v>25.71428571428571</v>
       </c>
       <c r="L228" t="n">
         <v>2373</v>
@@ -11907,7 +11929,7 @@
         <v>593</v>
       </c>
       <c r="K229" t="n">
-        <v>-21.10091743119266</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="L229" t="n">
         <v>2374.2</v>
@@ -11958,7 +11980,7 @@
         <v>593</v>
       </c>
       <c r="K230" t="n">
-        <v>-25.71428571428571</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L230" t="n">
         <v>2374.9</v>
@@ -12009,7 +12031,7 @@
         <v>595</v>
       </c>
       <c r="K231" t="n">
-        <v>-24.27184466019418</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L231" t="n">
         <v>2374.3</v>
@@ -12060,7 +12082,7 @@
         <v>603</v>
       </c>
       <c r="K232" t="n">
-        <v>-38.46153846153847</v>
+        <v>-28</v>
       </c>
       <c r="L232" t="n">
         <v>2373.4</v>
@@ -12111,7 +12133,7 @@
         <v>603</v>
       </c>
       <c r="K233" t="n">
-        <v>-33.33333333333333</v>
+        <v>-28</v>
       </c>
       <c r="L233" t="n">
         <v>2372.7</v>
@@ -12162,7 +12184,7 @@
         <v>603</v>
       </c>
       <c r="K234" t="n">
-        <v>-18.9873417721519</v>
+        <v>-10</v>
       </c>
       <c r="L234" t="n">
         <v>2372</v>
@@ -12213,7 +12235,7 @@
         <v>606</v>
       </c>
       <c r="K235" t="n">
-        <v>-10.25641025641026</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L235" t="n">
         <v>2372.1</v>
@@ -12264,7 +12286,7 @@
         <v>606</v>
       </c>
       <c r="K236" t="n">
-        <v>-1.408450704225352</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L236" t="n">
         <v>2372.3</v>
@@ -12315,7 +12337,7 @@
         <v>607</v>
       </c>
       <c r="K237" t="n">
-        <v>7.692307692307693</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L237" t="n">
         <v>2372.3</v>
@@ -12366,7 +12388,7 @@
         <v>614</v>
       </c>
       <c r="K238" t="n">
-        <v>27.27272727272727</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L238" t="n">
         <v>2372.5</v>
@@ -12417,7 +12439,7 @@
         <v>614</v>
       </c>
       <c r="K239" t="n">
-        <v>18.64406779661017</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L239" t="n">
         <v>2372.4</v>
@@ -12519,7 +12541,7 @@
         <v>620</v>
       </c>
       <c r="K241" t="n">
-        <v>2.040816326530612</v>
+        <v>88.23529411764706</v>
       </c>
       <c r="L241" t="n">
         <v>2373.2</v>
@@ -12570,7 +12592,7 @@
         <v>622</v>
       </c>
       <c r="K242" t="n">
-        <v>8.695652173913043</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="L242" t="n">
         <v>2374.5</v>
@@ -12621,7 +12643,7 @@
         <v>639</v>
       </c>
       <c r="K243" t="n">
-        <v>-18.0327868852459</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L243" t="n">
         <v>2374.1</v>
@@ -12672,7 +12694,7 @@
         <v>650</v>
       </c>
       <c r="K244" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L244" t="n">
         <v>2374.8</v>
@@ -12774,7 +12796,7 @@
         <v>654</v>
       </c>
       <c r="K246" t="n">
-        <v>8.571428571428571</v>
+        <v>10.63829787234043</v>
       </c>
       <c r="L246" t="n">
         <v>2375.4</v>
@@ -12825,7 +12847,7 @@
         <v>663</v>
       </c>
       <c r="K247" t="n">
-        <v>-5.128205128205128</v>
+        <v>-22.44897959183674</v>
       </c>
       <c r="L247" t="n">
         <v>2375</v>
@@ -12876,7 +12898,7 @@
         <v>671</v>
       </c>
       <c r="K248" t="n">
-        <v>-1.234567901234568</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L248" t="n">
         <v>2374.7</v>
@@ -12927,7 +12949,7 @@
         <v>677</v>
       </c>
       <c r="K249" t="n">
-        <v>2.380952380952381</v>
+        <v>1.639344262295082</v>
       </c>
       <c r="L249" t="n">
         <v>2375</v>
@@ -12978,7 +13000,7 @@
         <v>677</v>
       </c>
       <c r="K250" t="n">
-        <v>2.380952380952381</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L250" t="n">
         <v>2375.1</v>
@@ -13029,7 +13051,7 @@
         <v>683</v>
       </c>
       <c r="K251" t="n">
-        <v>11.36363636363636</v>
+        <v>8.196721311475409</v>
       </c>
       <c r="L251" t="n">
         <v>2375.4</v>
@@ -13080,7 +13102,7 @@
         <v>686</v>
       </c>
       <c r="K252" t="n">
-        <v>18.07228915662651</v>
+        <v>40.42553191489361</v>
       </c>
       <c r="L252" t="n">
         <v>2375.6</v>
@@ -13131,7 +13153,7 @@
         <v>689</v>
       </c>
       <c r="K253" t="n">
-        <v>13.95348837209302</v>
+        <v>12.82051282051282</v>
       </c>
       <c r="L253" t="n">
         <v>2377.2</v>
@@ -13182,7 +13204,7 @@
         <v>694</v>
       </c>
       <c r="K254" t="n">
-        <v>7.692307692307693</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L254" t="n">
         <v>2377.2</v>
@@ -13233,7 +13255,7 @@
         <v>695</v>
       </c>
       <c r="K255" t="n">
-        <v>5.617977528089887</v>
+        <v>2.439024390243902</v>
       </c>
       <c r="L255" t="n">
         <v>2377.5</v>
@@ -13284,7 +13306,7 @@
         <v>706</v>
       </c>
       <c r="K256" t="n">
-        <v>-6</v>
+        <v>-2.325581395348837</v>
       </c>
       <c r="L256" t="n">
         <v>2376.5</v>
@@ -13335,7 +13357,7 @@
         <v>706</v>
       </c>
       <c r="K257" t="n">
-        <v>-5.05050505050505</v>
+        <v>-25.71428571428571</v>
       </c>
       <c r="L257" t="n">
         <v>2376.4</v>
@@ -13386,7 +13408,7 @@
         <v>708</v>
       </c>
       <c r="K258" t="n">
-        <v>-10.63829787234043</v>
+        <v>-41.93548387096774</v>
       </c>
       <c r="L258" t="n">
         <v>2375.7</v>
@@ -13437,7 +13459,7 @@
         <v>708</v>
       </c>
       <c r="K259" t="n">
-        <v>-10.63829787234043</v>
+        <v>-41.93548387096774</v>
       </c>
       <c r="L259" t="n">
         <v>2374.4</v>
@@ -13488,7 +13510,7 @@
         <v>709</v>
       </c>
       <c r="K260" t="n">
-        <v>-11.82795698924731</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L260" t="n">
         <v>2373.2</v>
@@ -13539,7 +13561,7 @@
         <v>719</v>
       </c>
       <c r="K261" t="n">
-        <v>-5.05050505050505</v>
+        <v>-15.15151515151515</v>
       </c>
       <c r="L261" t="n">
         <v>2372.4</v>
@@ -13590,7 +13612,7 @@
         <v>723</v>
       </c>
       <c r="K262" t="n">
-        <v>-6.930693069306932</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L262" t="n">
         <v>2371.5</v>
@@ -13641,7 +13663,7 @@
         <v>723</v>
       </c>
       <c r="K263" t="n">
-        <v>11.9047619047619</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L263" t="n">
         <v>2370.9</v>
@@ -13692,7 +13714,7 @@
         <v>725</v>
       </c>
       <c r="K264" t="n">
-        <v>1.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="L264" t="n">
         <v>2371</v>
@@ -13743,7 +13765,7 @@
         <v>733</v>
       </c>
       <c r="K265" t="n">
-        <v>13.58024691358025</v>
+        <v>70.37037037037037</v>
       </c>
       <c r="L265" t="n">
         <v>2371.8</v>
@@ -13794,7 +13816,7 @@
         <v>739</v>
       </c>
       <c r="K266" t="n">
-        <v>3.529411764705882</v>
+        <v>39.39393939393939</v>
       </c>
       <c r="L266" t="n">
         <v>2373.1</v>
@@ -13845,7 +13867,7 @@
         <v>743</v>
       </c>
       <c r="K267" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L267" t="n">
         <v>2374</v>
@@ -13896,7 +13918,7 @@
         <v>745</v>
       </c>
       <c r="K268" t="n">
-        <v>2.702702702702703</v>
+        <v>24.32432432432433</v>
       </c>
       <c r="L268" t="n">
         <v>2374.9</v>
@@ -13947,7 +13969,7 @@
         <v>756</v>
       </c>
       <c r="K269" t="n">
-        <v>8.860759493670885</v>
+        <v>40.42553191489361</v>
       </c>
       <c r="L269" t="n">
         <v>2376.9</v>
@@ -13998,7 +14020,7 @@
         <v>757</v>
       </c>
       <c r="K270" t="n">
-        <v>7.5</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="L270" t="n">
         <v>2378.7</v>
@@ -14049,7 +14071,7 @@
         <v>758</v>
       </c>
       <c r="K271" t="n">
-        <v>1.333333333333333</v>
+        <v>37.14285714285715</v>
       </c>
       <c r="L271" t="n">
         <v>2379.6</v>
@@ -14100,7 +14122,7 @@
         <v>760</v>
       </c>
       <c r="K272" t="n">
-        <v>2.702702702702703</v>
+        <v>29.72972972972973</v>
       </c>
       <c r="L272" t="n">
         <v>2380.7</v>
@@ -14151,7 +14173,7 @@
         <v>767</v>
       </c>
       <c r="K273" t="n">
-        <v>-2.564102564102564</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L273" t="n">
         <v>2381.1</v>
@@ -14202,7 +14224,7 @@
         <v>772</v>
       </c>
       <c r="K274" t="n">
-        <v>10.25641025641026</v>
+        <v>-2.564102564102564</v>
       </c>
       <c r="L274" t="n">
         <v>2381.8</v>
@@ -14253,7 +14275,7 @@
         <v>772</v>
       </c>
       <c r="K275" t="n">
-        <v>9.090909090909092</v>
+        <v>15.15151515151515</v>
       </c>
       <c r="L275" t="n">
         <v>2381.7</v>
@@ -14304,7 +14326,7 @@
         <v>772</v>
       </c>
       <c r="K276" t="n">
-        <v>27.27272727272727</v>
+        <v>31.03448275862069</v>
       </c>
       <c r="L276" t="n">
         <v>2382.2</v>
@@ -14355,7 +14377,7 @@
         <v>776</v>
       </c>
       <c r="K277" t="n">
-        <v>20</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="L277" t="n">
         <v>2382.7</v>
@@ -14406,7 +14428,7 @@
         <v>776</v>
       </c>
       <c r="K278" t="n">
-        <v>17.64705882352941</v>
+        <v>-40</v>
       </c>
       <c r="L278" t="n">
         <v>2383</v>
@@ -14457,7 +14479,7 @@
         <v>776</v>
       </c>
       <c r="K279" t="n">
-        <v>17.64705882352941</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L279" t="n">
         <v>2382.2</v>
@@ -14508,7 +14530,7 @@
         <v>777</v>
       </c>
       <c r="K280" t="n">
-        <v>17.64705882352941</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L280" t="n">
         <v>2381.6</v>
@@ -14559,7 +14581,7 @@
         <v>782</v>
       </c>
       <c r="K281" t="n">
-        <v>-4.761904761904762</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L281" t="n">
         <v>2380.4</v>
@@ -14610,7 +14632,7 @@
         <v>787</v>
       </c>
       <c r="K282" t="n">
-        <v>-6.25</v>
+        <v>-40</v>
       </c>
       <c r="L282" t="n">
         <v>2378.9</v>
@@ -14661,7 +14683,7 @@
         <v>792</v>
       </c>
       <c r="K283" t="n">
-        <v>-13.04347826086956</v>
+        <v>-90</v>
       </c>
       <c r="L283" t="n">
         <v>2377.6</v>
@@ -14712,7 +14734,7 @@
         <v>793</v>
       </c>
       <c r="K284" t="n">
-        <v>-17.64705882352941</v>
+        <v>-90.47619047619048</v>
       </c>
       <c r="L284" t="n">
         <v>2375.7</v>
@@ -14763,7 +14785,7 @@
         <v>794</v>
       </c>
       <c r="K285" t="n">
-        <v>-34.42622950819672</v>
+        <v>-90.90909090909091</v>
       </c>
       <c r="L285" t="n">
         <v>2373.7</v>
@@ -14814,7 +14836,7 @@
         <v>795</v>
       </c>
       <c r="K286" t="n">
-        <v>-25</v>
+        <v>-78.94736842105263</v>
       </c>
       <c r="L286" t="n">
         <v>2371.8</v>
@@ -14865,7 +14887,7 @@
         <v>804</v>
       </c>
       <c r="K287" t="n">
-        <v>-1.639344262295082</v>
+        <v>-21.42857142857143</v>
       </c>
       <c r="L287" t="n">
         <v>2371.2</v>
@@ -14916,7 +14938,7 @@
         <v>804</v>
       </c>
       <c r="K288" t="n">
-        <v>-5.084745762711865</v>
+        <v>-21.42857142857143</v>
       </c>
       <c r="L288" t="n">
         <v>2370.6</v>
@@ -14967,7 +14989,7 @@
         <v>805</v>
       </c>
       <c r="K289" t="n">
-        <v>-30.61224489795918</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L289" t="n">
         <v>2369.9</v>
@@ -15018,7 +15040,7 @@
         <v>806</v>
       </c>
       <c r="K290" t="n">
-        <v>-30.61224489795918</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L290" t="n">
         <v>2369</v>
@@ -15069,7 +15091,7 @@
         <v>806</v>
       </c>
       <c r="K291" t="n">
-        <v>-33.33333333333333</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L291" t="n">
         <v>2368.6</v>
@@ -15120,7 +15142,7 @@
         <v>808</v>
       </c>
       <c r="K292" t="n">
-        <v>-33.33333333333333</v>
+        <v>25</v>
       </c>
       <c r="L292" t="n">
         <v>2368.5</v>
@@ -15171,7 +15193,7 @@
         <v>810</v>
       </c>
       <c r="K293" t="n">
-        <v>-25.58139534883721</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L293" t="n">
         <v>2368.7</v>
@@ -15222,7 +15244,7 @@
         <v>818</v>
       </c>
       <c r="K294" t="n">
-        <v>-17.39130434782609</v>
+        <v>50</v>
       </c>
       <c r="L294" t="n">
         <v>2369.8</v>
@@ -15273,7 +15295,7 @@
         <v>823</v>
       </c>
       <c r="K295" t="n">
-        <v>-25.49019607843137</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="L295" t="n">
         <v>2370.5</v>
@@ -15324,7 +15346,7 @@
         <v>828</v>
       </c>
       <c r="K296" t="n">
-        <v>-14.28571428571428</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L296" t="n">
         <v>2371.6</v>
@@ -15375,7 +15397,7 @@
         <v>831</v>
       </c>
       <c r="K297" t="n">
-        <v>-1.818181818181818</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="L297" t="n">
         <v>2372.1</v>
@@ -15426,7 +15448,7 @@
         <v>833</v>
       </c>
       <c r="K298" t="n">
-        <v>1.754385964912281</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L298" t="n">
         <v>2372.8</v>
@@ -15477,7 +15499,7 @@
         <v>834</v>
       </c>
       <c r="K299" t="n">
-        <v>0</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L299" t="n">
         <v>2373.5</v>
@@ -15528,7 +15550,7 @@
         <v>834</v>
       </c>
       <c r="K300" t="n">
-        <v>-1.754385964912281</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L300" t="n">
         <v>2374.3</v>
@@ -15579,7 +15601,7 @@
         <v>835</v>
       </c>
       <c r="K301" t="n">
-        <v>9.433962264150944</v>
+        <v>40.74074074074074</v>
       </c>
       <c r="L301" t="n">
         <v>2375.2</v>
@@ -15630,7 +15652,7 @@
         <v>840</v>
       </c>
       <c r="K302" t="n">
-        <v>9.433962264150944</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="L302" t="n">
         <v>2375.8</v>
@@ -15681,7 +15703,7 @@
         <v>840</v>
       </c>
       <c r="K303" t="n">
-        <v>20.83333333333334</v>
+        <v>0</v>
       </c>
       <c r="L303" t="n">
         <v>2376.6</v>
@@ -15732,7 +15754,7 @@
         <v>845</v>
       </c>
       <c r="K304" t="n">
-        <v>11.53846153846154</v>
+        <v>0</v>
       </c>
       <c r="L304" t="n">
         <v>2376.1</v>
@@ -15783,7 +15805,7 @@
         <v>845</v>
       </c>
       <c r="K305" t="n">
-        <v>13.72549019607843</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L305" t="n">
         <v>2376.1</v>
@@ -15834,7 +15856,7 @@
         <v>849</v>
       </c>
       <c r="K306" t="n">
-        <v>18.51851851851852</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L306" t="n">
         <v>2376</v>
@@ -15885,7 +15907,7 @@
         <v>853</v>
       </c>
       <c r="K307" t="n">
-        <v>-6.122448979591836</v>
+        <v>-50</v>
       </c>
       <c r="L307" t="n">
         <v>2375.2</v>
@@ -15936,7 +15958,7 @@
         <v>854</v>
       </c>
       <c r="K308" t="n">
-        <v>-8</v>
+        <v>-50</v>
       </c>
       <c r="L308" t="n">
         <v>2374.1</v>
@@ -15987,7 +16009,7 @@
         <v>856</v>
       </c>
       <c r="K309" t="n">
-        <v>-1.96078431372549</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L309" t="n">
         <v>2373.3</v>
@@ -16038,7 +16060,7 @@
         <v>856</v>
       </c>
       <c r="K310" t="n">
-        <v>0</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L310" t="n">
         <v>2372.5</v>
@@ -16089,7 +16111,7 @@
         <v>856</v>
       </c>
       <c r="K311" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L311" t="n">
         <v>2371.6</v>
@@ -16140,7 +16162,7 @@
         <v>857</v>
       </c>
       <c r="K312" t="n">
-        <v>2.040816326530612</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L312" t="n">
         <v>2371.1</v>
@@ -16191,7 +16213,7 @@
         <v>857</v>
       </c>
       <c r="K313" t="n">
-        <v>6.382978723404255</v>
+        <v>0</v>
       </c>
       <c r="L313" t="n">
         <v>2370.6</v>
@@ -16242,7 +16264,7 @@
         <v>860</v>
       </c>
       <c r="K314" t="n">
-        <v>-4.761904761904762</v>
+        <v>20</v>
       </c>
       <c r="L314" t="n">
         <v>2370.9</v>
@@ -16293,7 +16315,7 @@
         <v>861</v>
       </c>
       <c r="K315" t="n">
-        <v>10.52631578947368</v>
+        <v>0</v>
       </c>
       <c r="L315" t="n">
         <v>2371.3</v>
@@ -16344,7 +16366,7 @@
         <v>861</v>
       </c>
       <c r="K316" t="n">
-        <v>-3.03030303030303</v>
+        <v>50</v>
       </c>
       <c r="L316" t="n">
         <v>2371.3</v>
@@ -16395,7 +16417,7 @@
         <v>861</v>
       </c>
       <c r="K317" t="n">
-        <v>-13.33333333333333</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L317" t="n">
         <v>2371.7</v>
@@ -16446,7 +16468,7 @@
         <v>865</v>
       </c>
       <c r="K318" t="n">
-        <v>-31.25</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L318" t="n">
         <v>2371.8</v>
@@ -16497,7 +16519,7 @@
         <v>875</v>
       </c>
       <c r="K319" t="n">
-        <v>2.439024390243902</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L319" t="n">
         <v>2372.7</v>
@@ -16548,7 +16570,7 @@
         <v>879</v>
       </c>
       <c r="K320" t="n">
-        <v>-6.666666666666667</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L320" t="n">
         <v>2373.2</v>
@@ -16599,7 +16621,7 @@
         <v>885</v>
       </c>
       <c r="K321" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L321" t="n">
         <v>2373.1</v>
@@ -16650,7 +16672,7 @@
         <v>893</v>
       </c>
       <c r="K322" t="n">
-        <v>5.660377358490567</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L322" t="n">
         <v>2373.9</v>
@@ -16701,7 +16723,7 @@
         <v>893</v>
       </c>
       <c r="K323" t="n">
-        <v>5.660377358490567</v>
+        <v>15.15151515151515</v>
       </c>
       <c r="L323" t="n">
         <v>2374.7</v>
@@ -16752,7 +16774,7 @@
         <v>899</v>
       </c>
       <c r="K324" t="n">
-        <v>25.92592592592592</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L324" t="n">
         <v>2375.8</v>
@@ -16803,7 +16825,7 @@
         <v>901</v>
       </c>
       <c r="K325" t="n">
-        <v>21.42857142857143</v>
+        <v>20</v>
       </c>
       <c r="L325" t="n">
         <v>2376.6</v>
@@ -16854,7 +16876,7 @@
         <v>901</v>
       </c>
       <c r="K326" t="n">
-        <v>15.38461538461539</v>
+        <v>20</v>
       </c>
       <c r="L326" t="n">
         <v>2377.4</v>
@@ -16905,7 +16927,7 @@
         <v>909</v>
       </c>
       <c r="K327" t="n">
-        <v>35.71428571428572</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L327" t="n">
         <v>2379</v>
@@ -16956,7 +16978,7 @@
         <v>911</v>
       </c>
       <c r="K328" t="n">
-        <v>40.35087719298245</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L328" t="n">
         <v>2381.2</v>
@@ -17007,7 +17029,7 @@
         <v>911</v>
       </c>
       <c r="K329" t="n">
-        <v>38.18181818181819</v>
+        <v>50</v>
       </c>
       <c r="L329" t="n">
         <v>2382.4</v>
@@ -17058,7 +17080,7 @@
         <v>913</v>
       </c>
       <c r="K330" t="n">
-        <v>40.35087719298245</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="L330" t="n">
         <v>2384.2</v>
@@ -17109,7 +17131,7 @@
         <v>916</v>
       </c>
       <c r="K331" t="n">
-        <v>43.33333333333334</v>
+        <v>82.60869565217391</v>
       </c>
       <c r="L331" t="n">
         <v>2386.9</v>
@@ -17160,7 +17182,7 @@
         <v>917</v>
       </c>
       <c r="K332" t="n">
-        <v>46.66666666666666</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="L332" t="n">
         <v>2388.9</v>
@@ -17211,7 +17233,7 @@
         <v>918</v>
       </c>
       <c r="K333" t="n">
-        <v>47.54098360655738</v>
+        <v>78.94736842105263</v>
       </c>
       <c r="L333" t="n">
         <v>2391</v>
@@ -17262,7 +17284,7 @@
         <v>918</v>
       </c>
       <c r="K334" t="n">
-        <v>44.82758620689656</v>
+        <v>100</v>
       </c>
       <c r="L334" t="n">
         <v>2392.5</v>
@@ -17313,7 +17335,7 @@
         <v>930</v>
       </c>
       <c r="K335" t="n">
-        <v>53.62318840579711</v>
+        <v>100</v>
       </c>
       <c r="L335" t="n">
         <v>2395.4</v>
@@ -17364,7 +17386,7 @@
         <v>931</v>
       </c>
       <c r="K336" t="n">
-        <v>51.42857142857142</v>
+        <v>90.90909090909091</v>
       </c>
       <c r="L336" t="n">
         <v>2398.2</v>
@@ -17415,7 +17437,7 @@
         <v>933</v>
       </c>
       <c r="K337" t="n">
-        <v>52.77777777777778</v>
+        <v>90.90909090909091</v>
       </c>
       <c r="L337" t="n">
         <v>2400.4</v>
@@ -17466,7 +17488,7 @@
         <v>943</v>
       </c>
       <c r="K338" t="n">
-        <v>66.66666666666666</v>
+        <v>93.75</v>
       </c>
       <c r="L338" t="n">
         <v>2403.4</v>
@@ -17517,7 +17539,7 @@
         <v>944</v>
       </c>
       <c r="K339" t="n">
-        <v>59.42028985507246</v>
+        <v>87.09677419354838</v>
       </c>
       <c r="L339" t="n">
         <v>2406.3</v>
@@ -17568,7 +17590,7 @@
         <v>946</v>
       </c>
       <c r="K340" t="n">
-        <v>64.17910447761194</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="L340" t="n">
         <v>2408.8</v>
@@ -17619,7 +17641,7 @@
         <v>953</v>
       </c>
       <c r="K341" t="n">
-        <v>61.76470588235294</v>
+        <v>38.88888888888889</v>
       </c>
       <c r="L341" t="n">
         <v>2410.3</v>
@@ -17670,7 +17692,7 @@
         <v>956</v>
       </c>
       <c r="K342" t="n">
-        <v>58.73015873015873</v>
+        <v>42.10526315789473</v>
       </c>
       <c r="L342" t="n">
         <v>2412</v>
@@ -17721,7 +17743,7 @@
         <v>965</v>
       </c>
       <c r="K343" t="n">
-        <v>63.88888888888889</v>
+        <v>53.19148936170212</v>
       </c>
       <c r="L343" t="n">
         <v>2414.5</v>
@@ -17772,7 +17794,7 @@
         <v>968</v>
       </c>
       <c r="K344" t="n">
-        <v>62.31884057971014</v>
+        <v>42.10526315789473</v>
       </c>
       <c r="L344" t="n">
         <v>2417.3</v>
@@ -17823,7 +17845,7 @@
         <v>971</v>
       </c>
       <c r="K345" t="n">
-        <v>68.57142857142857</v>
+        <v>50</v>
       </c>
       <c r="L345" t="n">
         <v>2419.2</v>
@@ -17874,7 +17896,7 @@
         <v>973</v>
       </c>
       <c r="K346" t="n">
-        <v>63.88888888888889</v>
+        <v>40</v>
       </c>
       <c r="L346" t="n">
         <v>2421</v>
@@ -17925,7 +17947,7 @@
         <v>975</v>
       </c>
       <c r="K347" t="n">
-        <v>60.60606060606061</v>
+        <v>25</v>
       </c>
       <c r="L347" t="n">
         <v>2422.8</v>
@@ -17976,7 +17998,7 @@
         <v>981</v>
       </c>
       <c r="K348" t="n">
-        <v>45.71428571428572</v>
+        <v>8.108108108108109</v>
       </c>
       <c r="L348" t="n">
         <v>2423</v>
@@ -18027,7 +18049,7 @@
         <v>981</v>
       </c>
       <c r="K349" t="n">
-        <v>45.71428571428572</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L349" t="n">
         <v>2423.3</v>
@@ -18078,7 +18100,7 @@
         <v>981</v>
       </c>
       <c r="K350" t="n">
-        <v>44.11764705882353</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L350" t="n">
         <v>2423.8</v>
@@ -18129,7 +18151,7 @@
         <v>997</v>
       </c>
       <c r="K351" t="n">
-        <v>53.08641975308642</v>
+        <v>60.97560975609756</v>
       </c>
       <c r="L351" t="n">
         <v>2426.6</v>
@@ -18180,7 +18202,7 @@
         <v>1013</v>
       </c>
       <c r="K352" t="n">
-        <v>60.41666666666666</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L352" t="n">
         <v>2430.7</v>
@@ -18231,7 +18253,7 @@
         <v>1017</v>
       </c>
       <c r="K353" t="n">
-        <v>61.61616161616161</v>
+        <v>67.3469387755102</v>
       </c>
       <c r="L353" t="n">
         <v>2434.3</v>
@@ -18282,7 +18304,7 @@
         <v>1024</v>
       </c>
       <c r="K354" t="n">
-        <v>64.15094339622641</v>
+        <v>69.81132075471697</v>
       </c>
       <c r="L354" t="n">
         <v>2438.3</v>
@@ -18333,7 +18355,7 @@
         <v>1029</v>
       </c>
       <c r="K355" t="n">
-        <v>51.51515151515152</v>
+        <v>60.71428571428571</v>
       </c>
       <c r="L355" t="n">
         <v>2441.5</v>
@@ -18384,7 +18406,7 @@
         <v>1030</v>
       </c>
       <c r="K356" t="n">
-        <v>53.53535353535354</v>
+        <v>60</v>
       </c>
       <c r="L356" t="n">
         <v>2445</v>
@@ -18435,7 +18457,7 @@
         <v>1039</v>
       </c>
       <c r="K357" t="n">
-        <v>39.62264150943396</v>
+        <v>51.72413793103448</v>
       </c>
       <c r="L357" t="n">
         <v>2447.4</v>
@@ -18486,7 +18508,7 @@
         <v>1048</v>
       </c>
       <c r="K358" t="n">
-        <v>39.04761904761905</v>
+        <v>58.2089552238806</v>
       </c>
       <c r="L358" t="n">
         <v>2451.3</v>
@@ -18537,7 +18559,7 @@
         <v>1061</v>
       </c>
       <c r="K359" t="n">
-        <v>24.78632478632479</v>
+        <v>32.5</v>
       </c>
       <c r="L359" t="n">
         <v>2453.9</v>
@@ -18588,7 +18610,7 @@
         <v>1061</v>
       </c>
       <c r="K360" t="n">
-        <v>26.95652173913043</v>
+        <v>15.625</v>
       </c>
       <c r="L360" t="n">
         <v>2456.5</v>
@@ -18639,7 +18661,7 @@
         <v>1061</v>
       </c>
       <c r="K361" t="n">
-        <v>35.18518518518518</v>
+        <v>-12.5</v>
       </c>
       <c r="L361" t="n">
         <v>2457.5</v>
@@ -18690,7 +18712,7 @@
         <v>1064</v>
       </c>
       <c r="K362" t="n">
-        <v>35.18518518518518</v>
+        <v>-14.8936170212766</v>
       </c>
       <c r="L362" t="n">
         <v>2457.2</v>
@@ -18741,7 +18763,7 @@
         <v>1065</v>
       </c>
       <c r="K363" t="n">
-        <v>30</v>
+        <v>-31.70731707317073</v>
       </c>
       <c r="L363" t="n">
         <v>2456.6</v>
@@ -18792,7 +18814,7 @@
         <v>1065</v>
       </c>
       <c r="K364" t="n">
-        <v>27.83505154639175</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L364" t="n">
         <v>2455.3</v>
@@ -18843,7 +18865,7 @@
         <v>1067</v>
       </c>
       <c r="K365" t="n">
-        <v>27.08333333333333</v>
+        <v>-18.91891891891892</v>
       </c>
       <c r="L365" t="n">
         <v>2454.7</v>
@@ -18894,7 +18916,7 @@
         <v>1068</v>
       </c>
       <c r="K366" t="n">
-        <v>28.42105263157895</v>
+        <v>3.448275862068965</v>
       </c>
       <c r="L366" t="n">
         <v>2453.9</v>
@@ -18945,7 +18967,7 @@
         <v>1075</v>
       </c>
       <c r="K367" t="n">
-        <v>18</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L367" t="n">
         <v>2453.3</v>
@@ -18996,7 +19018,7 @@
         <v>1076</v>
       </c>
       <c r="K368" t="n">
-        <v>24.21052631578947</v>
+        <v>-20</v>
       </c>
       <c r="L368" t="n">
         <v>2451.7</v>
@@ -19047,7 +19069,7 @@
         <v>1076</v>
       </c>
       <c r="K369" t="n">
-        <v>24.21052631578947</v>
+        <v>-20</v>
       </c>
       <c r="L369" t="n">
         <v>2451.4</v>
@@ -19098,7 +19120,7 @@
         <v>1076</v>
       </c>
       <c r="K370" t="n">
-        <v>24.21052631578947</v>
+        <v>-20</v>
       </c>
       <c r="L370" t="n">
         <v>2451.1</v>
@@ -19149,7 +19171,7 @@
         <v>1079</v>
       </c>
       <c r="K371" t="n">
-        <v>12.19512195121951</v>
+        <v>-20</v>
       </c>
       <c r="L371" t="n">
         <v>2451.1</v>
@@ -19200,7 +19222,7 @@
         <v>1081</v>
       </c>
       <c r="K372" t="n">
-        <v>-11.76470588235294</v>
+        <v>-37.5</v>
       </c>
       <c r="L372" t="n">
         <v>2450.6</v>
@@ -19251,7 +19273,7 @@
         <v>1082</v>
       </c>
       <c r="K373" t="n">
-        <v>-20</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L373" t="n">
         <v>2449.9</v>
@@ -19302,7 +19324,7 @@
         <v>1082</v>
       </c>
       <c r="K374" t="n">
-        <v>-34.48275862068966</v>
+        <v>-60</v>
       </c>
       <c r="L374" t="n">
         <v>2449.2</v>
@@ -19353,7 +19375,7 @@
         <v>1083</v>
       </c>
       <c r="K375" t="n">
-        <v>-29.62962962962963</v>
+        <v>-60</v>
       </c>
       <c r="L375" t="n">
         <v>2448.2</v>
@@ -19404,7 +19426,7 @@
         <v>1089</v>
       </c>
       <c r="K376" t="n">
-        <v>-18.64406779661017</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L376" t="n">
         <v>2447.9</v>
@@ -19455,7 +19477,7 @@
         <v>1095</v>
       </c>
       <c r="K377" t="n">
-        <v>-14.28571428571428</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L377" t="n">
         <v>2447.7</v>
@@ -19506,7 +19528,7 @@
         <v>1106</v>
       </c>
       <c r="K378" t="n">
-        <v>-10.3448275862069</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L378" t="n">
         <v>2448.7</v>
@@ -19557,7 +19579,7 @@
         <v>1109</v>
       </c>
       <c r="K379" t="n">
-        <v>20.83333333333334</v>
+        <v>39.39393939393939</v>
       </c>
       <c r="L379" t="n">
         <v>2450</v>
@@ -19608,7 +19630,7 @@
         <v>1114</v>
       </c>
       <c r="K380" t="n">
-        <v>28.30188679245283</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L380" t="n">
         <v>2451.8</v>
@@ -19659,7 +19681,7 @@
         <v>1115</v>
       </c>
       <c r="K381" t="n">
-        <v>29.62962962962963</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L381" t="n">
         <v>2453.4</v>
@@ -19710,7 +19732,7 @@
         <v>1119</v>
       </c>
       <c r="K382" t="n">
-        <v>30.90909090909091</v>
+        <v>62.16216216216216</v>
       </c>
       <c r="L382" t="n">
         <v>2455.6</v>
@@ -19761,7 +19783,7 @@
         <v>1120</v>
       </c>
       <c r="K383" t="n">
-        <v>30.90909090909091</v>
+        <v>63.1578947368421</v>
       </c>
       <c r="L383" t="n">
         <v>2458</v>
@@ -19812,7 +19834,7 @@
         <v>1121</v>
       </c>
       <c r="K384" t="n">
-        <v>32.14285714285715</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="L384" t="n">
         <v>2460.5</v>
@@ -19863,7 +19885,7 @@
         <v>1126</v>
       </c>
       <c r="K385" t="n">
-        <v>35.59322033898305</v>
+        <v>67.56756756756756</v>
       </c>
       <c r="L385" t="n">
         <v>2463.6</v>
@@ -19914,7 +19936,7 @@
         <v>1129</v>
       </c>
       <c r="K386" t="n">
-        <v>40.98360655737705</v>
+        <v>100</v>
       </c>
       <c r="L386" t="n">
         <v>2466.4</v>
@@ -19965,7 +19987,7 @@
         <v>1132</v>
       </c>
       <c r="K387" t="n">
-        <v>50.87719298245614</v>
+        <v>76.92307692307693</v>
       </c>
       <c r="L387" t="n">
         <v>2469.5</v>
@@ -20016,7 +20038,7 @@
         <v>1137</v>
       </c>
       <c r="K388" t="n">
-        <v>40.98360655737705</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L388" t="n">
         <v>2471</v>
@@ -20067,7 +20089,7 @@
         <v>1138</v>
       </c>
       <c r="K389" t="n">
-        <v>41.93548387096774</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L389" t="n">
         <v>2472.3</v>
@@ -20118,7 +20140,7 @@
         <v>1138</v>
       </c>
       <c r="K390" t="n">
-        <v>41.93548387096774</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="L390" t="n">
         <v>2473.1</v>
@@ -20169,7 +20191,7 @@
         <v>1138</v>
       </c>
       <c r="K391" t="n">
-        <v>38.98305084745763</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L391" t="n">
         <v>2473.8</v>
@@ -20220,7 +20242,7 @@
         <v>1144</v>
       </c>
       <c r="K392" t="n">
-        <v>30.15873015873016</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L392" t="n">
         <v>2473.5</v>
@@ -20271,7 +20293,7 @@
         <v>1150</v>
       </c>
       <c r="K393" t="n">
-        <v>20.58823529411764</v>
+        <v>-37.93103448275862</v>
       </c>
       <c r="L393" t="n">
         <v>2472.5</v>
@@ -20322,7 +20344,7 @@
         <v>1154</v>
       </c>
       <c r="K394" t="n">
-        <v>25</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L394" t="n">
         <v>2471.8</v>
@@ -20373,7 +20395,7 @@
         <v>1155</v>
       </c>
       <c r="K395" t="n">
-        <v>25</v>
+        <v>-61.53846153846154</v>
       </c>
       <c r="L395" t="n">
         <v>2470.5</v>
@@ -20424,7 +20446,7 @@
         <v>1155</v>
       </c>
       <c r="K396" t="n">
-        <v>18.18181818181818</v>
+        <v>-56.52173913043478</v>
       </c>
       <c r="L396" t="n">
         <v>2468.9</v>
@@ -20475,7 +20497,7 @@
         <v>1158</v>
       </c>
       <c r="K397" t="n">
-        <v>33.33333333333333</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L397" t="n">
         <v>2467.9</v>
@@ -20526,7 +20548,7 @@
         <v>1159</v>
       </c>
       <c r="K398" t="n">
-        <v>16.9811320754717</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L398" t="n">
         <v>2467.3</v>
@@ -20577,7 +20599,7 @@
         <v>1161</v>
       </c>
       <c r="K399" t="n">
-        <v>7.692307692307693</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L399" t="n">
         <v>2466.4</v>
@@ -20628,7 +20650,7 @@
         <v>1162</v>
       </c>
       <c r="K400" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L400" t="n">
         <v>2465.6</v>
@@ -20679,7 +20701,7 @@
         <v>1164</v>
       </c>
       <c r="K401" t="n">
-        <v>2.040816326530612</v>
+        <v>0</v>
       </c>
       <c r="L401" t="n">
         <v>2465</v>
@@ -20730,7 +20752,7 @@
         <v>1169</v>
       </c>
       <c r="K402" t="n">
-        <v>-16</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L402" t="n">
         <v>2464.5</v>
@@ -20781,7 +20803,7 @@
         <v>1173</v>
       </c>
       <c r="K403" t="n">
-        <v>-9.433962264150944</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L403" t="n">
         <v>2465</v>
@@ -20832,7 +20854,7 @@
         <v>1178</v>
       </c>
       <c r="K404" t="n">
-        <v>-19.29824561403509</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L404" t="n">
         <v>2464.6</v>
@@ -20883,7 +20905,7 @@
         <v>1185</v>
       </c>
       <c r="K405" t="n">
-        <v>-38.98305084745763</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L405" t="n">
         <v>2463.6</v>
@@ -20934,7 +20956,7 @@
         <v>1185</v>
       </c>
       <c r="K406" t="n">
-        <v>-46.42857142857143</v>
+        <v>-48.14814814814815</v>
       </c>
       <c r="L406" t="n">
         <v>2462.6</v>
@@ -20985,7 +21007,7 @@
         <v>1192</v>
       </c>
       <c r="K407" t="n">
-        <v>-26.66666666666667</v>
+        <v>-15.15151515151515</v>
       </c>
       <c r="L407" t="n">
         <v>2462</v>
@@ -21036,7 +21058,7 @@
         <v>1193</v>
       </c>
       <c r="K408" t="n">
-        <v>-17.85714285714286</v>
+        <v>-6.25</v>
       </c>
       <c r="L408" t="n">
         <v>2461.6</v>
@@ -21087,7 +21109,7 @@
         <v>1193</v>
       </c>
       <c r="K409" t="n">
-        <v>-20</v>
+        <v>-9.67741935483871</v>
       </c>
       <c r="L409" t="n">
         <v>2461.4</v>
@@ -21138,7 +21160,7 @@
         <v>1193</v>
       </c>
       <c r="K410" t="n">
-        <v>-20</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L410" t="n">
         <v>2461.1</v>
@@ -21189,7 +21211,7 @@
         <v>1193</v>
       </c>
       <c r="K411" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L411" t="n">
         <v>2460.6</v>
@@ -21240,7 +21262,7 @@
         <v>1194</v>
       </c>
       <c r="K412" t="n">
-        <v>-8</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L412" t="n">
         <v>2460.7</v>
@@ -21291,7 +21313,7 @@
         <v>1196</v>
       </c>
       <c r="K413" t="n">
-        <v>8.695652173913043</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L413" t="n">
         <v>2460.6</v>
@@ -21342,7 +21364,7 @@
         <v>1210</v>
       </c>
       <c r="K414" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L414" t="n">
         <v>2462.4</v>
@@ -21393,7 +21415,7 @@
         <v>1210</v>
       </c>
       <c r="K415" t="n">
-        <v>27.27272727272727</v>
+        <v>100</v>
       </c>
       <c r="L415" t="n">
         <v>2464.9</v>
@@ -21444,7 +21466,7 @@
         <v>1221</v>
       </c>
       <c r="K416" t="n">
-        <v>39.39393939393939</v>
+        <v>100</v>
       </c>
       <c r="L416" t="n">
         <v>2468.5</v>
@@ -21495,7 +21517,7 @@
         <v>1245</v>
       </c>
       <c r="K417" t="n">
-        <v>54.02298850574713</v>
+        <v>100</v>
       </c>
       <c r="L417" t="n">
         <v>2473.8</v>
@@ -21546,7 +21568,7 @@
         <v>1261</v>
       </c>
       <c r="K418" t="n">
-        <v>31.37254901960784</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L418" t="n">
         <v>2477.4</v>
@@ -21597,7 +21619,7 @@
         <v>1283</v>
       </c>
       <c r="K419" t="n">
-        <v>45.90163934426229</v>
+        <v>64.44444444444444</v>
       </c>
       <c r="L419" t="n">
         <v>2483.2</v>
@@ -21648,7 +21670,7 @@
         <v>1323</v>
       </c>
       <c r="K420" t="n">
-        <v>59.00621118012423</v>
+        <v>75.38461538461539</v>
       </c>
       <c r="L420" t="n">
         <v>2493</v>
@@ -21699,7 +21721,7 @@
         <v>1327</v>
       </c>
       <c r="K421" t="n">
-        <v>54.60122699386503</v>
+        <v>69.92481203007519</v>
       </c>
       <c r="L421" t="n">
         <v>2502.4</v>
@@ -21750,7 +21772,7 @@
         <v>1338</v>
       </c>
       <c r="K422" t="n">
-        <v>62.1301775147929</v>
+        <v>71.83098591549296</v>
       </c>
       <c r="L422" t="n">
         <v>2512.8</v>
@@ -21801,7 +21823,7 @@
         <v>1342</v>
       </c>
       <c r="K423" t="n">
-        <v>57.39644970414201</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L423" t="n">
         <v>2522.6</v>
@@ -21852,7 +21874,7 @@
         <v>1344</v>
       </c>
       <c r="K424" t="n">
-        <v>60.24096385542169</v>
+        <v>61.19402985074627</v>
       </c>
       <c r="L424" t="n">
         <v>2530.8</v>
@@ -21903,7 +21925,7 @@
         <v>1350</v>
       </c>
       <c r="K425" t="n">
-        <v>68.48484848484848</v>
+        <v>59.68992248062015</v>
       </c>
       <c r="L425" t="n">
         <v>2539.6</v>
@@ -21954,7 +21976,7 @@
         <v>1365</v>
       </c>
       <c r="K426" t="n">
-        <v>71.11111111111111</v>
+        <v>56.66666666666666</v>
       </c>
       <c r="L426" t="n">
         <v>2548.8</v>
@@ -22005,7 +22027,7 @@
         <v>1370</v>
       </c>
       <c r="K427" t="n">
-        <v>65.1685393258427</v>
+        <v>72.47706422018348</v>
       </c>
       <c r="L427" t="n">
         <v>2555.1</v>
@@ -22056,7 +22078,7 @@
         <v>1373</v>
       </c>
       <c r="K428" t="n">
-        <v>65.55555555555556</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L428" t="n">
         <v>2563.3</v>
@@ -22107,7 +22129,7 @@
         <v>1409</v>
       </c>
       <c r="K429" t="n">
-        <v>37.96296296296296</v>
+        <v>-18.6046511627907</v>
       </c>
       <c r="L429" t="n">
         <v>2565.7</v>
@@ -22158,7 +22180,7 @@
         <v>1415</v>
       </c>
       <c r="K430" t="n">
-        <v>39.63963963963964</v>
+        <v>-6.818181818181817</v>
       </c>
       <c r="L430" t="n">
         <v>2564.7</v>
@@ -22209,7 +22231,7 @@
         <v>1436</v>
       </c>
       <c r="K431" t="n">
-        <v>27.57201646090535</v>
+        <v>-38.77551020408163</v>
       </c>
       <c r="L431" t="n">
         <v>2562</v>
@@ -22260,7 +22282,7 @@
         <v>1449</v>
       </c>
       <c r="K432" t="n">
-        <v>30.98039215686275</v>
+        <v>-19.62616822429906</v>
       </c>
       <c r="L432" t="n">
         <v>2559.5</v>
@@ -22311,7 +22333,7 @@
         <v>1455</v>
       </c>
       <c r="K433" t="n">
-        <v>27.41312741312741</v>
+        <v>-22.52252252252252</v>
       </c>
       <c r="L433" t="n">
         <v>2556.8</v>
@@ -22362,7 +22384,7 @@
         <v>1455</v>
       </c>
       <c r="K434" t="n">
-        <v>23.26530612244898</v>
+        <v>-29.52380952380953</v>
       </c>
       <c r="L434" t="n">
         <v>2554.3</v>
@@ -22413,7 +22435,7 @@
         <v>1456</v>
       </c>
       <c r="K435" t="n">
-        <v>22.76422764227642</v>
+        <v>-51.64835164835166</v>
       </c>
       <c r="L435" t="n">
         <v>2551.1</v>
@@ -22464,7 +22486,7 @@
         <v>1457</v>
       </c>
       <c r="K436" t="n">
-        <v>19.49152542372881</v>
+        <v>-47.12643678160919</v>
       </c>
       <c r="L436" t="n">
         <v>2546.5</v>
@@ -22515,7 +22537,7 @@
         <v>1482</v>
       </c>
       <c r="K437" t="n">
-        <v>-1.265822784810127</v>
+        <v>-63.30275229357798</v>
       </c>
       <c r="L437" t="n">
         <v>2539.9</v>
@@ -22566,7 +22588,7 @@
         <v>1494</v>
       </c>
       <c r="K438" t="n">
-        <v>10.72961373390558</v>
+        <v>-24.70588235294118</v>
       </c>
       <c r="L438" t="n">
         <v>2534.2</v>
@@ -22617,7 +22639,7 @@
         <v>1495</v>
       </c>
       <c r="K439" t="n">
-        <v>0.9433962264150944</v>
+        <v>-35</v>
       </c>
       <c r="L439" t="n">
         <v>2532</v>
@@ -22668,7 +22690,7 @@
         <v>1514</v>
       </c>
       <c r="K440" t="n">
-        <v>-29.84293193717277</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L440" t="n">
         <v>2527.3</v>
@@ -22719,7 +22741,7 @@
         <v>1535</v>
       </c>
       <c r="K441" t="n">
-        <v>-15.38461538461539</v>
+        <v>-20.93023255813954</v>
       </c>
       <c r="L441" t="n">
         <v>2526.8</v>
@@ -22770,7 +22792,7 @@
         <v>1541</v>
       </c>
       <c r="K442" t="n">
-        <v>-18.22660098522168</v>
+        <v>-6.976744186046512</v>
       </c>
       <c r="L442" t="n">
         <v>2525.6</v>
@@ -22821,7 +22843,7 @@
         <v>1541</v>
       </c>
       <c r="K443" t="n">
-        <v>-16.58291457286432</v>
+        <v>-6.976744186046512</v>
       </c>
       <c r="L443" t="n">
         <v>2525</v>
@@ -22872,7 +22894,7 @@
         <v>1546</v>
       </c>
       <c r="K444" t="n">
-        <v>-17.82178217821782</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L444" t="n">
         <v>2523.9</v>
@@ -22923,7 +22945,7 @@
         <v>1549</v>
       </c>
       <c r="K445" t="n">
-        <v>-19.59798994974874</v>
+        <v>-8.695652173913043</v>
       </c>
       <c r="L445" t="n">
         <v>2523.2</v>
@@ -22974,7 +22996,7 @@
         <v>1551</v>
       </c>
       <c r="K446" t="n">
-        <v>-27.95698924731182</v>
+        <v>27.53623188405797</v>
       </c>
       <c r="L446" t="n">
         <v>2522.6</v>
@@ -23025,7 +23047,7 @@
         <v>1556</v>
       </c>
       <c r="K447" t="n">
-        <v>-22.58064516129032</v>
+        <v>19.35483870967742</v>
       </c>
       <c r="L447" t="n">
         <v>2525</v>
@@ -23076,7 +23098,7 @@
         <v>1561</v>
       </c>
       <c r="K448" t="n">
-        <v>-26.59574468085106</v>
+        <v>12.12121212121212</v>
       </c>
       <c r="L448" t="n">
         <v>2525.7</v>
@@ -23127,7 +23149,7 @@
         <v>1563</v>
       </c>
       <c r="K449" t="n">
-        <v>-10.38961038961039</v>
+        <v>51.02040816326531</v>
       </c>
       <c r="L449" t="n">
         <v>2526.3</v>
@@ -23178,7 +23200,7 @@
         <v>1569</v>
       </c>
       <c r="K450" t="n">
-        <v>-18.18181818181818</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L450" t="n">
         <v>2528.2</v>
@@ -23229,7 +23251,7 @@
         <v>1574</v>
       </c>
       <c r="K451" t="n">
-        <v>-8.695652173913043</v>
+        <v>-39.39393939393939</v>
       </c>
       <c r="L451" t="n">
         <v>2527.5</v>
@@ -23280,7 +23302,7 @@
         <v>1576</v>
       </c>
       <c r="K452" t="n">
-        <v>-21.25984251968504</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L452" t="n">
         <v>2526</v>
@@ -23331,7 +23353,7 @@
         <v>1592</v>
       </c>
       <c r="K453" t="n">
-        <v>-27.00729927007299</v>
+        <v>-56.52173913043478</v>
       </c>
       <c r="L453" t="n">
         <v>2522.9</v>
@@ -23382,7 +23404,7 @@
         <v>1600</v>
       </c>
       <c r="K454" t="n">
-        <v>-20</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L454" t="n">
         <v>2521.1</v>
@@ -23433,7 +23455,7 @@
         <v>1603</v>
       </c>
       <c r="K455" t="n">
-        <v>-17.00680272108843</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L455" t="n">
         <v>2519.3</v>
@@ -23484,7 +23506,7 @@
         <v>1604</v>
       </c>
       <c r="K456" t="n">
-        <v>-18.36734693877551</v>
+        <v>-54.16666666666666</v>
       </c>
       <c r="L456" t="n">
         <v>2517.2</v>
@@ -23535,7 +23557,7 @@
         <v>1605</v>
       </c>
       <c r="K457" t="n">
-        <v>-0.8130081300813009</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L457" t="n">
         <v>2514.7</v>
@@ -23586,7 +23608,7 @@
         <v>1611</v>
       </c>
       <c r="K458" t="n">
-        <v>-16.23931623931624</v>
+        <v>-50</v>
       </c>
       <c r="L458" t="n">
         <v>2512.1</v>
@@ -23637,7 +23659,7 @@
         <v>1611</v>
       </c>
       <c r="K459" t="n">
-        <v>-15.51724137931035</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L459" t="n">
         <v>2509.7</v>
@@ -23688,7 +23710,7 @@
         <v>1618</v>
       </c>
       <c r="K460" t="n">
-        <v>-5.769230769230769</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L460" t="n">
         <v>2507.2</v>
@@ -23739,7 +23761,7 @@
         <v>1620</v>
       </c>
       <c r="K461" t="n">
-        <v>-34.11764705882353</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L461" t="n">
         <v>2505</v>
@@ -23790,7 +23812,7 @@
         <v>1631</v>
       </c>
       <c r="K462" t="n">
-        <v>-26.66666666666667</v>
+        <v>17.94871794871795</v>
       </c>
       <c r="L462" t="n">
         <v>2504.1</v>
@@ -23841,7 +23863,7 @@
         <v>1640</v>
       </c>
       <c r="K463" t="n">
-        <v>-15.15151515151515</v>
+        <v>20</v>
       </c>
       <c r="L463" t="n">
         <v>2505.7</v>
@@ -23892,7 +23914,7 @@
         <v>1640</v>
       </c>
       <c r="K464" t="n">
-        <v>-10.63829787234043</v>
+        <v>13.51351351351351</v>
       </c>
       <c r="L464" t="n">
         <v>2506.5</v>
@@ -23943,7 +23965,7 @@
         <v>1656</v>
       </c>
       <c r="K465" t="n">
-        <v>2.803738317757009</v>
+        <v>42.30769230769231</v>
       </c>
       <c r="L465" t="n">
         <v>2508.6</v>
@@ -23994,7 +24016,7 @@
         <v>1666</v>
       </c>
       <c r="K466" t="n">
-        <v>9.565217391304348</v>
+        <v>50.81967213114754</v>
       </c>
       <c r="L466" t="n">
         <v>2511.8</v>
@@ -24045,7 +24067,7 @@
         <v>1667</v>
       </c>
       <c r="K467" t="n">
-        <v>6.306306306306306</v>
+        <v>67.85714285714286</v>
       </c>
       <c r="L467" t="n">
         <v>2515</v>
@@ -24096,7 +24118,7 @@
         <v>1668</v>
       </c>
       <c r="K468" t="n">
-        <v>10.2803738317757</v>
+        <v>64.91228070175438</v>
       </c>
       <c r="L468" t="n">
         <v>2518.7</v>

--- a/BackTest/2019-10-06 BackTest LINK.xlsx
+++ b/BackTest/2019-10-06 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-92052.90900000001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-38706.80770000001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>2330</v>
@@ -521,7 +521,7 @@
         <v>-119360.5617</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>2331</v>
@@ -562,7 +562,7 @@
         <v>-136216.1759</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>2329</v>
@@ -603,9 +603,11 @@
         <v>-112518.8134</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2328</v>
+      </c>
       <c r="J6" t="n">
         <v>2330</v>
       </c>
@@ -642,9 +644,11 @@
         <v>-112518.8134</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2332</v>
+      </c>
       <c r="J7" t="n">
         <v>2330</v>
       </c>
@@ -681,9 +685,11 @@
         <v>-226687.3035</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2332</v>
+      </c>
       <c r="J8" t="n">
         <v>2330</v>
       </c>
@@ -876,9 +882,11 @@
         <v>-243393.525</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2334</v>
+      </c>
       <c r="J13" t="n">
         <v>2330</v>
       </c>
@@ -1032,9 +1040,11 @@
         <v>-122288.0924</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2332</v>
+      </c>
       <c r="J17" t="n">
         <v>2330</v>
       </c>
@@ -4503,9 +4513,11 @@
         <v>-230197.2435493204</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>2352</v>
+      </c>
       <c r="J106" t="n">
         <v>2330</v>
       </c>
@@ -4542,9 +4554,11 @@
         <v>-230197.2435493204</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>2352</v>
+      </c>
       <c r="J107" t="n">
         <v>2330</v>
       </c>
@@ -4581,9 +4595,11 @@
         <v>-230345.7312493204</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>2352</v>
+      </c>
       <c r="J108" t="n">
         <v>2330</v>
       </c>
@@ -4620,9 +4636,11 @@
         <v>-230333.4561642864</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>2348</v>
+      </c>
       <c r="J109" t="n">
         <v>2330</v>
       </c>
@@ -4659,9 +4677,11 @@
         <v>-230346.7538642864</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>2352</v>
+      </c>
       <c r="J110" t="n">
         <v>2330</v>
       </c>
@@ -4698,9 +4718,11 @@
         <v>-230198.8124642864</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>2350</v>
+      </c>
       <c r="J111" t="n">
         <v>2330</v>
       </c>
@@ -4737,9 +4759,11 @@
         <v>-230198.8124642864</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>2359</v>
+      </c>
       <c r="J112" t="n">
         <v>2330</v>
       </c>
@@ -4776,9 +4800,11 @@
         <v>-230100.4124642864</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>2359</v>
+      </c>
       <c r="J113" t="n">
         <v>2330</v>
       </c>
@@ -5907,9 +5933,11 @@
         <v>-229785.3559642864</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>2366</v>
+      </c>
       <c r="J142" t="n">
         <v>2330</v>
       </c>
@@ -5946,9 +5974,11 @@
         <v>-229880.2937642864</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>2366</v>
+      </c>
       <c r="J143" t="n">
         <v>2330</v>
       </c>
@@ -5985,9 +6015,11 @@
         <v>-229914.2432642864</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>2365</v>
+      </c>
       <c r="J144" t="n">
         <v>2330</v>
       </c>
@@ -6024,9 +6056,11 @@
         <v>-232431.2432642864</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>2359</v>
+      </c>
       <c r="J145" t="n">
         <v>2330</v>
       </c>
@@ -6063,9 +6097,11 @@
         <v>-232212.2432642864</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>2347</v>
+      </c>
       <c r="J146" t="n">
         <v>2330</v>
       </c>
@@ -6102,9 +6138,11 @@
         <v>-232262.6329642864</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>2352</v>
+      </c>
       <c r="J147" t="n">
         <v>2330</v>
       </c>
@@ -6141,9 +6179,11 @@
         <v>-232262.6329642864</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>2347</v>
+      </c>
       <c r="J148" t="n">
         <v>2330</v>
       </c>
@@ -6180,9 +6220,11 @@
         <v>-232794.6160642864</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>2347</v>
+      </c>
       <c r="J149" t="n">
         <v>2330</v>
       </c>
@@ -6219,9 +6261,11 @@
         <v>-232681.5160642864</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>2338</v>
+      </c>
       <c r="J150" t="n">
         <v>2330</v>
       </c>
@@ -6258,9 +6302,11 @@
         <v>-232624.9160642864</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>2347</v>
+      </c>
       <c r="J151" t="n">
         <v>2330</v>
       </c>
@@ -6297,9 +6343,11 @@
         <v>-232624.9160642864</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>2351</v>
+      </c>
       <c r="J152" t="n">
         <v>2330</v>
       </c>
@@ -6336,9 +6384,11 @@
         <v>-232664.5059642864</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>2351</v>
+      </c>
       <c r="J153" t="n">
         <v>2330</v>
       </c>
@@ -6375,9 +6425,11 @@
         <v>-232682.5059642864</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>2350</v>
+      </c>
       <c r="J154" t="n">
         <v>2330</v>
       </c>
@@ -6414,9 +6466,11 @@
         <v>-232323.5059642864</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>2349</v>
+      </c>
       <c r="J155" t="n">
         <v>2330</v>
       </c>
@@ -6453,9 +6507,11 @@
         <v>-232323.5059642864</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>2350</v>
+      </c>
       <c r="J156" t="n">
         <v>2330</v>
       </c>
@@ -6492,9 +6548,11 @@
         <v>-232114.7973642864</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>2350</v>
+      </c>
       <c r="J157" t="n">
         <v>2330</v>
       </c>
@@ -6531,9 +6589,11 @@
         <v>-232211.9759642864</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>2369</v>
+      </c>
       <c r="J158" t="n">
         <v>2330</v>
       </c>
@@ -19089,7 +19149,7 @@
         <v>224138.6854025363</v>
       </c>
       <c r="H480" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="n">
@@ -19097,15 +19157,13 @@
       </c>
       <c r="K480" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L480" t="n">
-        <v>1.091995708154507</v>
-      </c>
-      <c r="M480" t="n">
-        <v>1.000858369098713</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M480" t="inlineStr"/>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
@@ -19130,11 +19188,17 @@
         <v>226885.6434025363</v>
       </c>
       <c r="H481" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>2330</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -19163,11 +19227,17 @@
         <v>206107.9303025363</v>
       </c>
       <c r="H482" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>2330</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -19196,11 +19266,17 @@
         <v>198263.3520025364</v>
       </c>
       <c r="H483" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>2330</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -19229,11 +19305,17 @@
         <v>200317.3653025363</v>
       </c>
       <c r="H484" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>2330</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -19262,11 +19344,17 @@
         <v>204966.2983227454</v>
       </c>
       <c r="H485" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>2330</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -19295,11 +19383,17 @@
         <v>203192.8553242171</v>
       </c>
       <c r="H486" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>2330</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -19328,11 +19422,17 @@
         <v>205967.7522162064</v>
       </c>
       <c r="H487" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>2330</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -19361,11 +19461,17 @@
         <v>192012.4972011946</v>
       </c>
       <c r="H488" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>2330</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -19394,11 +19500,17 @@
         <v>203705.6069011946</v>
       </c>
       <c r="H489" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>2330</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -19427,11 +19539,17 @@
         <v>201711.0117011946</v>
       </c>
       <c r="H490" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>2330</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -19460,11 +19578,17 @@
         <v>204627.5605011946</v>
       </c>
       <c r="H491" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>2330</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -19493,11 +19617,17 @@
         <v>196460.5814011946</v>
       </c>
       <c r="H492" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>2330</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -19526,15 +19656,23 @@
         <v>196460.5814011946</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>2330</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L493" t="n">
-        <v>1</v>
-      </c>
-      <c r="M493" t="inlineStr"/>
+        <v>1.083412017167382</v>
+      </c>
+      <c r="M493" t="n">
+        <v>1.000858369098713</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
@@ -19559,7 +19697,7 @@
         <v>194746.1012011946</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -19592,7 +19730,7 @@
         <v>195055.9923011946</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -19625,7 +19763,7 @@
         <v>190237.7591011946</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -19658,7 +19796,7 @@
         <v>190530.9389011947</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -19691,7 +19829,7 @@
         <v>189343.4678011947</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -19724,7 +19862,7 @@
         <v>187026.6376011947</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -19757,7 +19895,7 @@
         <v>193047.0048011947</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -19790,7 +19928,7 @@
         <v>194105.5148011947</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -19823,7 +19961,7 @@
         <v>194105.5148011947</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -19856,7 +19994,7 @@
         <v>192460.2944011947</v>
       </c>
       <c r="H503" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -19889,7 +20027,7 @@
         <v>192648.7432685998</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -19922,7 +20060,7 @@
         <v>192953.1301685998</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -19955,7 +20093,7 @@
         <v>193737.6322685998</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -19988,7 +20126,7 @@
         <v>193485.7399685998</v>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -20021,7 +20159,7 @@
         <v>190363.6773377</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -20087,7 +20225,7 @@
         <v>189155.0005377</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -20120,7 +20258,7 @@
         <v>188742.0089377</v>
       </c>
       <c r="H511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -20153,7 +20291,7 @@
         <v>185080.9527377</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -20186,7 +20324,7 @@
         <v>186938.2081377</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -20219,7 +20357,7 @@
         <v>187096.0125377</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -20252,7 +20390,7 @@
         <v>184443.8840377</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -20285,7 +20423,7 @@
         <v>185453.6821377</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -20296,6 +20434,6 @@
       <c r="M516" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-06 BackTest LINK.xlsx
+++ b/BackTest/2019-10-06 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-92052.90900000001</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-38706.80770000001</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2330</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2330</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-119360.5617</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2331</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>-136216.1759</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2329</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,19 +583,11 @@
         <v>-112518.8134</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2328</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -644,19 +616,11 @@
         <v>-112518.8134</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2332</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -685,19 +649,11 @@
         <v>-226687.3035</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2332</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -729,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -768,14 +718,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -807,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -846,14 +784,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -882,19 +814,11 @@
         <v>-243393.525</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2334</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -926,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -965,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1004,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1040,19 +946,11 @@
         <v>-122288.0924</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2332</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1084,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1123,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1162,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1201,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1240,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1279,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1318,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1357,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1396,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1435,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1474,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1513,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1552,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1591,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1630,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1669,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1708,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1747,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1786,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1825,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1864,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1903,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1942,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1981,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2020,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2059,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2098,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2137,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2176,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2215,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2254,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2293,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2332,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2371,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2410,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2449,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2488,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2527,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2566,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2605,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2644,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2683,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2722,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2761,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2800,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2839,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2878,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2917,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2956,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2995,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3034,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3073,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3112,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3151,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3190,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3229,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3268,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3307,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3346,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3385,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3424,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3463,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3502,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3541,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3580,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3619,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3658,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3697,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3736,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3775,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3814,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3853,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3892,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3931,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3970,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4009,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4048,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4087,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4126,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4165,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4204,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4243,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4282,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4321,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4360,14 +3754,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4399,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4438,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4477,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4513,19 +3883,11 @@
         <v>-230197.2435493204</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>2352</v>
-      </c>
-      <c r="J106" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4560,13 +3922,9 @@
         <v>2352</v>
       </c>
       <c r="J107" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2352</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4601,11 +3959,11 @@
         <v>2352</v>
       </c>
       <c r="J108" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L108" t="n">
@@ -4642,11 +4000,11 @@
         <v>2348</v>
       </c>
       <c r="J109" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L109" t="n">
@@ -4683,13 +4041,9 @@
         <v>2352</v>
       </c>
       <c r="J110" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2352</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4724,11 +4078,11 @@
         <v>2350</v>
       </c>
       <c r="J111" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L111" t="n">
@@ -4765,11 +4119,11 @@
         <v>2359</v>
       </c>
       <c r="J112" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L112" t="n">
@@ -4806,11 +4160,11 @@
         <v>2359</v>
       </c>
       <c r="J113" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L113" t="n">
@@ -4841,11 +4195,13 @@
         <v>-229645.8124642864</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>2364</v>
+      </c>
       <c r="J114" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4884,7 +4240,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4923,7 +4279,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4962,7 +4318,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -5001,7 +4357,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -5040,7 +4396,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -5079,7 +4435,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5118,7 +4474,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5157,7 +4513,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5196,7 +4552,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5235,7 +4591,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5274,7 +4630,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5313,7 +4669,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5352,7 +4708,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5391,7 +4747,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5430,7 +4786,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5469,7 +4825,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5508,7 +4864,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5547,7 +4903,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5586,7 +4942,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5625,7 +4981,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5664,7 +5020,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5703,7 +5059,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5742,7 +5098,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5781,7 +5137,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5820,7 +5176,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5859,7 +5215,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5898,7 +5254,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5933,13 +5289,11 @@
         <v>-229785.3559642864</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>2366</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5974,13 +5328,11 @@
         <v>-229880.2937642864</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>2366</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -6015,13 +5367,11 @@
         <v>-229914.2432642864</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>2365</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -6062,7 +5412,7 @@
         <v>2359</v>
       </c>
       <c r="J145" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -6103,7 +5453,7 @@
         <v>2347</v>
       </c>
       <c r="J146" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -6144,7 +5494,7 @@
         <v>2352</v>
       </c>
       <c r="J147" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6185,7 +5535,7 @@
         <v>2347</v>
       </c>
       <c r="J148" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6226,7 +5576,7 @@
         <v>2347</v>
       </c>
       <c r="J149" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6267,7 +5617,7 @@
         <v>2338</v>
       </c>
       <c r="J150" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6308,7 +5658,7 @@
         <v>2347</v>
       </c>
       <c r="J151" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6349,7 +5699,7 @@
         <v>2351</v>
       </c>
       <c r="J152" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6390,7 +5740,7 @@
         <v>2351</v>
       </c>
       <c r="J153" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6431,7 +5781,7 @@
         <v>2350</v>
       </c>
       <c r="J154" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6472,7 +5822,7 @@
         <v>2349</v>
       </c>
       <c r="J155" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6513,7 +5863,7 @@
         <v>2350</v>
       </c>
       <c r="J156" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6554,7 +5904,7 @@
         <v>2350</v>
       </c>
       <c r="J157" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6595,7 +5945,7 @@
         <v>2369</v>
       </c>
       <c r="J158" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6630,11 +5980,13 @@
         <v>-232185.3259642864</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>2368</v>
+      </c>
       <c r="J159" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6669,11 +6021,13 @@
         <v>-232185.3259642864</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>2369</v>
+      </c>
       <c r="J160" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6708,11 +6062,13 @@
         <v>-232185.3259642864</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>2369</v>
+      </c>
       <c r="J161" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6747,11 +6103,13 @@
         <v>-232188.8259642864</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>2369</v>
+      </c>
       <c r="J162" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6786,11 +6144,13 @@
         <v>-232188.8259642864</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>2361</v>
+      </c>
       <c r="J163" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6825,11 +6185,13 @@
         <v>-232153.2759642864</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>2361</v>
+      </c>
       <c r="J164" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6864,11 +6226,13 @@
         <v>-232153.2759642864</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>2365</v>
+      </c>
       <c r="J165" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6903,11 +6267,13 @@
         <v>-232153.2759642864</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>2365</v>
+      </c>
       <c r="J166" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6942,11 +6308,13 @@
         <v>-232153.2759642864</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>2365</v>
+      </c>
       <c r="J167" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6981,11 +6349,13 @@
         <v>-232153.2759642864</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>2365</v>
+      </c>
       <c r="J168" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -7020,11 +6390,13 @@
         <v>-232153.3759642864</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>2365</v>
+      </c>
       <c r="J169" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -7059,11 +6431,13 @@
         <v>-232147.6998642864</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>2364</v>
+      </c>
       <c r="J170" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -7098,11 +6472,13 @@
         <v>-232147.6998642864</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>2365</v>
+      </c>
       <c r="J171" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -7137,11 +6513,13 @@
         <v>-232147.6998642864</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>2365</v>
+      </c>
       <c r="J172" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -7176,11 +6554,13 @@
         <v>-232148.6998642864</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>2365</v>
+      </c>
       <c r="J173" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -7215,11 +6595,13 @@
         <v>-232148.6998642864</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>2360</v>
+      </c>
       <c r="J174" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -7254,11 +6636,13 @@
         <v>-231658.5695642864</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>2360</v>
+      </c>
       <c r="J175" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -7293,11 +6677,13 @@
         <v>-231858.5695642864</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>2365</v>
+      </c>
       <c r="J176" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -7332,11 +6718,13 @@
         <v>-231858.5695642864</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>2363</v>
+      </c>
       <c r="J177" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -7371,11 +6759,13 @@
         <v>-231858.5695642864</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>2363</v>
+      </c>
       <c r="J178" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7410,11 +6800,13 @@
         <v>-231858.5695642864</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>2363</v>
+      </c>
       <c r="J179" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7449,11 +6841,13 @@
         <v>-233058.5695642864</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>2363</v>
+      </c>
       <c r="J180" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7488,11 +6882,13 @@
         <v>-233382.5140642864</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>2360</v>
+      </c>
       <c r="J181" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7527,11 +6923,13 @@
         <v>-233157.6656642864</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>2359</v>
+      </c>
       <c r="J182" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7566,11 +6964,13 @@
         <v>-233122.0656642864</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>2364</v>
+      </c>
       <c r="J183" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7605,11 +7005,13 @@
         <v>-233122.0656642864</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>2365</v>
+      </c>
       <c r="J184" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7644,11 +7046,13 @@
         <v>-232849.4246642864</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>2365</v>
+      </c>
       <c r="J185" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7683,11 +7087,13 @@
         <v>-232828.3978642864</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>2367</v>
+      </c>
       <c r="J186" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7722,11 +7128,13 @@
         <v>-232828.3978642864</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>2369</v>
+      </c>
       <c r="J187" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7761,11 +7169,13 @@
         <v>-232828.3978642864</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>2369</v>
+      </c>
       <c r="J188" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7804,7 +7214,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7843,7 +7253,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7882,7 +7292,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7921,7 +7331,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7960,7 +7370,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7999,7 +7409,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -8038,7 +7448,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -8077,7 +7487,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -8116,7 +7526,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -8155,7 +7565,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -8194,7 +7604,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -8233,7 +7643,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -8272,7 +7682,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -8311,7 +7721,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -8350,7 +7760,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -8389,7 +7799,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -8428,7 +7838,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -8467,7 +7877,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -8506,7 +7916,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -8545,7 +7955,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -8584,7 +7994,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8623,7 +8033,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8662,7 +8072,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8701,7 +8111,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8740,7 +8150,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8779,7 +8189,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8818,7 +8228,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8857,7 +8267,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8896,7 +8306,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8935,7 +8345,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8974,7 +8384,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -9013,7 +8423,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -9052,7 +8462,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -9091,7 +8501,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -9130,7 +8540,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -9169,7 +8579,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -9208,7 +8618,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -9247,7 +8657,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -9286,7 +8696,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -9325,7 +8735,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -9364,7 +8774,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -9403,7 +8813,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -9442,7 +8852,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -9481,7 +8891,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -9520,7 +8930,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -9559,7 +8969,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -9598,7 +9008,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -9637,7 +9047,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -9676,7 +9086,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -9715,7 +9125,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -9754,7 +9164,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -9793,7 +9203,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -9832,7 +9242,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -9871,7 +9281,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -9910,7 +9320,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -9949,7 +9359,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -9988,7 +9398,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -10027,7 +9437,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -10066,7 +9476,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -10105,7 +9515,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -10144,7 +9554,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -10183,7 +9593,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -10222,7 +9632,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -10261,7 +9671,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -10300,7 +9710,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -10339,7 +9749,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -10378,7 +9788,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -10417,7 +9827,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -10456,7 +9866,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -10495,7 +9905,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -10534,7 +9944,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -10573,7 +9983,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -10612,7 +10022,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -10651,7 +10061,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -10690,7 +10100,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -10729,7 +10139,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -10768,7 +10178,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -10807,7 +10217,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -10846,7 +10256,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -10885,7 +10295,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -10924,7 +10334,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -10963,7 +10373,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -11002,7 +10412,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -11041,7 +10451,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -11080,7 +10490,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -11119,7 +10529,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -11158,7 +10568,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -11197,7 +10607,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -11236,7 +10646,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -11275,7 +10685,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -11314,7 +10724,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -11353,7 +10763,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -11392,7 +10802,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -11431,7 +10841,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -11470,7 +10880,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -11509,7 +10919,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -11548,7 +10958,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -11587,7 +10997,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -11626,7 +11036,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -11665,7 +11075,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -11704,7 +11114,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -11743,7 +11153,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -11782,7 +11192,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -11821,7 +11231,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -11860,7 +11270,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -11899,7 +11309,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -11938,7 +11348,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -11977,7 +11387,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -12016,7 +11426,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -12055,7 +11465,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -12094,7 +11504,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -12133,7 +11543,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -12172,7 +11582,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -12211,7 +11621,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -12250,7 +11660,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -12289,7 +11699,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -12328,7 +11738,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -12367,7 +11777,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -12406,7 +11816,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -12445,7 +11855,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -12484,7 +11894,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -12523,7 +11933,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -12562,7 +11972,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -12601,7 +12011,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -12640,7 +12050,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -12679,7 +12089,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -12718,7 +12128,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -12757,7 +12167,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -12796,7 +12206,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -12835,7 +12245,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -12874,7 +12284,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -12913,7 +12323,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -12952,7 +12362,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -12991,7 +12401,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -13030,7 +12440,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -13069,7 +12479,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -13108,7 +12518,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -13147,7 +12557,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -13186,7 +12596,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -13225,7 +12635,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -13264,7 +12674,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -13303,7 +12713,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -13342,7 +12752,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -13381,7 +12791,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -13420,7 +12830,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -13459,7 +12869,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -13498,7 +12908,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -13537,7 +12947,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -13576,7 +12986,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -13615,7 +13025,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -13654,7 +13064,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -13693,7 +13103,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -13732,7 +13142,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -13771,7 +13181,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -13810,7 +13220,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -13849,7 +13259,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -13888,7 +13298,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -13927,7 +13337,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -13966,7 +13376,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -14005,7 +13415,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -14044,7 +13454,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -14083,7 +13493,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -14122,7 +13532,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -14161,7 +13571,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -14200,7 +13610,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -14239,7 +13649,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -14278,7 +13688,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -14317,7 +13727,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -14356,7 +13766,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -14395,7 +13805,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -14434,7 +13844,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -14473,7 +13883,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -14512,7 +13922,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -14551,7 +13961,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -14590,7 +14000,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -14629,7 +14039,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -14668,7 +14078,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -14707,7 +14117,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -14746,7 +14156,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -14785,7 +14195,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -14824,7 +14234,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -14863,7 +14273,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -14902,7 +14312,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -14941,7 +14351,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -14980,7 +14390,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -15019,7 +14429,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -15058,7 +14468,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -15097,7 +14507,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -15136,7 +14546,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -15175,7 +14585,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -15214,7 +14624,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -15253,7 +14663,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -15292,7 +14702,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -15331,7 +14741,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -15370,7 +14780,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -15409,7 +14819,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -15448,7 +14858,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -15487,7 +14897,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -15526,7 +14936,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -15565,7 +14975,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -15604,7 +15014,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -15643,7 +15053,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -15682,7 +15092,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -15721,7 +15131,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -15760,7 +15170,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -15799,7 +15209,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -15838,7 +15248,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -15877,7 +15287,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -15916,7 +15326,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -15955,7 +15365,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -15994,7 +15404,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -16033,7 +15443,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -16072,7 +15482,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -16111,7 +15521,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -16150,7 +15560,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -16189,7 +15599,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -16228,7 +15638,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -16267,7 +15677,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -16302,19 +15712,19 @@
         <v>165019.4659243517</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
-        <v>2330</v>
+        <v>2352</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L407" t="n">
-        <v>1</v>
+        <v>1.025612244897959</v>
       </c>
       <c r="M407" t="inlineStr"/>
     </row>
@@ -16341,17 +15751,11 @@
         <v>165019.4659243517</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -16380,17 +15784,11 @@
         <v>165019.4659243517</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -16419,17 +15817,11 @@
         <v>171016.1335243517</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -16458,17 +15850,11 @@
         <v>173444.2126243517</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -16497,17 +15883,11 @@
         <v>177980.2686243517</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -16536,17 +15916,11 @@
         <v>183629.4988243517</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -16575,17 +15949,11 @@
         <v>180638.5722573863</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -16614,17 +15982,11 @@
         <v>182364.8365573864</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16653,17 +16015,11 @@
         <v>180016.2908573864</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16692,17 +16048,11 @@
         <v>180820.7967573864</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16731,17 +16081,11 @@
         <v>179205.7967573864</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16770,17 +16114,11 @@
         <v>179205.7967573864</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16809,17 +16147,11 @@
         <v>179205.7967573864</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16848,17 +16180,11 @@
         <v>179217.1516573864</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16887,17 +16213,11 @@
         <v>182958.0474573864</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16926,17 +16246,11 @@
         <v>182958.0474573864</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16965,17 +16279,11 @@
         <v>183892.3773573864</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -17004,17 +16312,11 @@
         <v>183654.8863573864</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -17046,14 +16348,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -17082,17 +16378,11 @@
         <v>182927.1365573864</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -17124,14 +16414,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -17163,14 +16447,8 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -17202,14 +16480,8 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -17241,14 +16513,8 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -17280,14 +16546,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -17319,14 +16579,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -17358,14 +16612,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -17397,14 +16645,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -17436,14 +16678,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -17472,17 +16708,11 @@
         <v>182758.3431573863</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -17514,14 +16744,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -17550,17 +16774,11 @@
         <v>183189.9394573863</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -17589,17 +16807,11 @@
         <v>184142.3619963158</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -17628,17 +16840,11 @@
         <v>185582.3126963158</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -17670,14 +16876,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -17709,14 +16909,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17748,14 +16942,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17787,14 +16975,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17826,14 +17008,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17865,14 +17041,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17904,14 +17074,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17943,14 +17107,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17982,14 +17140,8 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -18021,14 +17173,8 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -18060,14 +17206,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -18099,14 +17239,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -18138,14 +17272,8 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -18177,14 +17305,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -18216,14 +17338,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -18255,14 +17371,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -18294,14 +17404,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -18333,14 +17437,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -18372,14 +17470,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -18411,14 +17503,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -18450,14 +17536,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -18489,14 +17569,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -18528,14 +17602,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -18567,14 +17635,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -18606,14 +17668,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -18645,14 +17701,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -18684,14 +17734,8 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -18723,14 +17767,8 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -18762,14 +17800,8 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -18801,14 +17833,8 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -18840,14 +17866,8 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -18879,14 +17899,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -18918,14 +17932,8 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -18957,14 +17965,8 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -18996,14 +17998,8 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -19035,14 +18031,8 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -19074,14 +18064,8 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -19113,14 +18097,8 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -19152,14 +18130,8 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -19191,14 +18163,8 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -19230,14 +18196,8 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -19269,14 +18229,8 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -19308,14 +18262,8 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -19347,14 +18295,8 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -19386,14 +18328,8 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -19425,14 +18361,8 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -19464,14 +18394,8 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -19503,14 +18427,8 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -19542,14 +18460,8 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -19581,14 +18493,8 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -19620,14 +18526,8 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -19656,23 +18556,15 @@
         <v>196460.5814011946</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>2330</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
-        <v>1.083412017167382</v>
-      </c>
-      <c r="M493" t="n">
-        <v>1.000858369098713</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
@@ -19697,7 +18589,7 @@
         <v>194746.1012011946</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -19730,7 +18622,7 @@
         <v>195055.9923011946</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -19763,7 +18655,7 @@
         <v>190237.7591011946</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -19796,7 +18688,7 @@
         <v>190530.9389011947</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -19829,7 +18721,7 @@
         <v>189343.4678011947</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -19862,7 +18754,7 @@
         <v>187026.6376011947</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -19895,7 +18787,7 @@
         <v>193047.0048011947</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -19928,7 +18820,7 @@
         <v>194105.5148011947</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -19961,7 +18853,7 @@
         <v>194105.5148011947</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -19994,7 +18886,7 @@
         <v>192460.2944011947</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -20027,7 +18919,7 @@
         <v>192648.7432685998</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -20060,7 +18952,7 @@
         <v>192953.1301685998</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -20093,7 +18985,7 @@
         <v>193737.6322685998</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -20126,7 +19018,7 @@
         <v>193485.7399685998</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -20159,7 +19051,7 @@
         <v>190363.6773377</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -20434,6 +19326,6 @@
       <c r="M516" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-06 BackTest LINK.xlsx
+++ b/BackTest/2019-10-06 BackTest LINK.xlsx
@@ -3322,11 +3322,17 @@
         <v>-228355.6350493204</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>2348</v>
+      </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3355,11 +3361,17 @@
         <v>-228334.3557493204</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>2345</v>
+      </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +3400,17 @@
         <v>-228340.8491493204</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>2349</v>
+      </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +3439,17 @@
         <v>-229210.6848493204</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2346</v>
+      </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +3478,17 @@
         <v>-229210.6848493204</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>2345</v>
+      </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3517,17 @@
         <v>-229087.1776493204</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>2345</v>
+      </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3520,11 +3556,17 @@
         <v>-229167.8570493204</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2356</v>
+      </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3553,11 +3595,17 @@
         <v>-229593.6176493204</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>2354</v>
+      </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +3634,17 @@
         <v>-229593.6176493204</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>2352</v>
+      </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,11 +3673,17 @@
         <v>-229593.6176493204</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>2352</v>
+      </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +3712,17 @@
         <v>-229632.9544493204</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>2352</v>
+      </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +3751,17 @@
         <v>-229282.2910493204</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>2351</v>
+      </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +3790,17 @@
         <v>-229282.2910493204</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>2352</v>
+      </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +3829,17 @@
         <v>-229282.2910493204</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>2352</v>
+      </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +3868,17 @@
         <v>-230477.5081493204</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>2352</v>
+      </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +3907,17 @@
         <v>-230477.5081493204</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>2351</v>
+      </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3850,11 +3946,17 @@
         <v>-230197.2435493204</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>2351</v>
+      </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +3985,17 @@
         <v>-230197.2435493204</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>2352</v>
+      </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3921,10 +4029,12 @@
       <c r="I107" t="n">
         <v>2352</v>
       </c>
-      <c r="J107" t="n">
-        <v>2352</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3958,12 +4068,10 @@
       <c r="I108" t="n">
         <v>2352</v>
       </c>
-      <c r="J108" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L108" t="n">
@@ -3999,12 +4107,10 @@
       <c r="I109" t="n">
         <v>2348</v>
       </c>
-      <c r="J109" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L109" t="n">
@@ -4040,10 +4146,12 @@
       <c r="I110" t="n">
         <v>2352</v>
       </c>
-      <c r="J110" t="n">
-        <v>2352</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4077,12 +4185,10 @@
       <c r="I111" t="n">
         <v>2350</v>
       </c>
-      <c r="J111" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L111" t="n">
@@ -4118,12 +4224,10 @@
       <c r="I112" t="n">
         <v>2359</v>
       </c>
-      <c r="J112" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L112" t="n">
@@ -4159,12 +4263,10 @@
       <c r="I113" t="n">
         <v>2359</v>
       </c>
-      <c r="J113" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L113" t="n">
@@ -4200,9 +4302,7 @@
       <c r="I114" t="n">
         <v>2364</v>
       </c>
-      <c r="J114" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4236,12 +4336,12 @@
         <v>-229645.8124642864</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>2352</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>2367</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4275,12 +4375,12 @@
         <v>-229645.8124642864</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>2352</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>2367</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4314,12 +4414,12 @@
         <v>-228920.8124642864</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>2352</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>2367</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4353,12 +4453,12 @@
         <v>-228948.2124642864</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>2352</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>2369</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4392,12 +4492,12 @@
         <v>-229142.5124642864</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>2352</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>2368</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4431,12 +4531,12 @@
         <v>-229137.5124642864</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>2352</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>2362</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4470,12 +4570,12 @@
         <v>-228560.1968642864</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>2352</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>2367</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4509,12 +4609,12 @@
         <v>-228585.1968642864</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>2352</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>2369</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4548,12 +4648,12 @@
         <v>-228580.1968642864</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>2352</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>2368</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4587,12 +4687,12 @@
         <v>-228580.1968642864</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>2352</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>2369</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4626,12 +4726,12 @@
         <v>-229862.8213642864</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>2352</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>2369</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4665,12 +4765,12 @@
         <v>-229606.4255642864</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>2352</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>2368</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4704,12 +4804,12 @@
         <v>-229056.3397642864</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>2352</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>2369</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4743,12 +4843,12 @@
         <v>-229054.9532642864</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>2352</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>2371</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4782,12 +4882,12 @@
         <v>-229054.9532642864</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>2352</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>2380</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4821,12 +4921,12 @@
         <v>-229054.9532642864</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>2352</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>2380</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4860,12 +4960,12 @@
         <v>-229055.9507642864</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>2352</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>2380</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4899,12 +4999,12 @@
         <v>-229083.6553642864</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>2352</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>2378</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4938,12 +5038,12 @@
         <v>-229083.6553642864</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>2352</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>2376</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4977,12 +5077,12 @@
         <v>-229083.6553642864</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>2352</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>2376</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5016,12 +5116,12 @@
         <v>-229083.6553642864</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>2352</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>2376</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5055,12 +5155,12 @@
         <v>-229083.6553642864</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>2352</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>2376</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5094,12 +5194,12 @@
         <v>-229294.1816642864</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>2352</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>2376</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5133,12 +5233,12 @@
         <v>-229294.1816642864</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>2352</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>2375</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5172,12 +5272,12 @@
         <v>-229294.1816642864</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>2352</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>2375</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5211,12 +5311,12 @@
         <v>-229755.3597642864</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>2352</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>2375</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5250,12 +5350,12 @@
         <v>-229785.3559642864</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>2352</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>2373</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5289,12 +5389,12 @@
         <v>-229785.3559642864</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>2352</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>2366</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5328,12 +5428,12 @@
         <v>-229880.2937642864</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>2352</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>2366</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5367,12 +5467,12 @@
         <v>-229914.2432642864</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>2352</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>2365</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5411,9 +5511,7 @@
       <c r="I145" t="n">
         <v>2359</v>
       </c>
-      <c r="J145" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5452,9 +5550,7 @@
       <c r="I146" t="n">
         <v>2347</v>
       </c>
-      <c r="J146" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5493,9 +5589,7 @@
       <c r="I147" t="n">
         <v>2352</v>
       </c>
-      <c r="J147" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5534,9 +5628,7 @@
       <c r="I148" t="n">
         <v>2347</v>
       </c>
-      <c r="J148" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5575,9 +5667,7 @@
       <c r="I149" t="n">
         <v>2347</v>
       </c>
-      <c r="J149" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5616,9 +5706,7 @@
       <c r="I150" t="n">
         <v>2338</v>
       </c>
-      <c r="J150" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5657,9 +5745,7 @@
       <c r="I151" t="n">
         <v>2347</v>
       </c>
-      <c r="J151" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5698,9 +5784,7 @@
       <c r="I152" t="n">
         <v>2351</v>
       </c>
-      <c r="J152" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5739,9 +5823,7 @@
       <c r="I153" t="n">
         <v>2351</v>
       </c>
-      <c r="J153" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5780,9 +5862,7 @@
       <c r="I154" t="n">
         <v>2350</v>
       </c>
-      <c r="J154" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5821,9 +5901,7 @@
       <c r="I155" t="n">
         <v>2349</v>
       </c>
-      <c r="J155" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5862,9 +5940,7 @@
       <c r="I156" t="n">
         <v>2350</v>
       </c>
-      <c r="J156" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5903,9 +5979,7 @@
       <c r="I157" t="n">
         <v>2350</v>
       </c>
-      <c r="J157" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5944,9 +6018,7 @@
       <c r="I158" t="n">
         <v>2369</v>
       </c>
-      <c r="J158" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5985,9 +6057,7 @@
       <c r="I159" t="n">
         <v>2368</v>
       </c>
-      <c r="J159" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6026,9 +6096,7 @@
       <c r="I160" t="n">
         <v>2369</v>
       </c>
-      <c r="J160" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6067,9 +6135,7 @@
       <c r="I161" t="n">
         <v>2369</v>
       </c>
-      <c r="J161" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6108,9 +6174,7 @@
       <c r="I162" t="n">
         <v>2369</v>
       </c>
-      <c r="J162" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6149,9 +6213,7 @@
       <c r="I163" t="n">
         <v>2361</v>
       </c>
-      <c r="J163" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6190,9 +6252,7 @@
       <c r="I164" t="n">
         <v>2361</v>
       </c>
-      <c r="J164" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6231,9 +6291,7 @@
       <c r="I165" t="n">
         <v>2365</v>
       </c>
-      <c r="J165" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6272,9 +6330,7 @@
       <c r="I166" t="n">
         <v>2365</v>
       </c>
-      <c r="J166" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6313,9 +6369,7 @@
       <c r="I167" t="n">
         <v>2365</v>
       </c>
-      <c r="J167" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6354,9 +6408,7 @@
       <c r="I168" t="n">
         <v>2365</v>
       </c>
-      <c r="J168" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6395,9 +6447,7 @@
       <c r="I169" t="n">
         <v>2365</v>
       </c>
-      <c r="J169" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6436,9 +6486,7 @@
       <c r="I170" t="n">
         <v>2364</v>
       </c>
-      <c r="J170" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6477,9 +6525,7 @@
       <c r="I171" t="n">
         <v>2365</v>
       </c>
-      <c r="J171" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6518,9 +6564,7 @@
       <c r="I172" t="n">
         <v>2365</v>
       </c>
-      <c r="J172" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6559,9 +6603,7 @@
       <c r="I173" t="n">
         <v>2365</v>
       </c>
-      <c r="J173" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6600,9 +6642,7 @@
       <c r="I174" t="n">
         <v>2360</v>
       </c>
-      <c r="J174" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6641,9 +6681,7 @@
       <c r="I175" t="n">
         <v>2360</v>
       </c>
-      <c r="J175" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6682,9 +6720,7 @@
       <c r="I176" t="n">
         <v>2365</v>
       </c>
-      <c r="J176" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6723,9 +6759,7 @@
       <c r="I177" t="n">
         <v>2363</v>
       </c>
-      <c r="J177" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6764,9 +6798,7 @@
       <c r="I178" t="n">
         <v>2363</v>
       </c>
-      <c r="J178" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6805,9 +6837,7 @@
       <c r="I179" t="n">
         <v>2363</v>
       </c>
-      <c r="J179" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6846,9 +6876,7 @@
       <c r="I180" t="n">
         <v>2363</v>
       </c>
-      <c r="J180" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6887,9 +6915,7 @@
       <c r="I181" t="n">
         <v>2360</v>
       </c>
-      <c r="J181" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6928,9 +6954,7 @@
       <c r="I182" t="n">
         <v>2359</v>
       </c>
-      <c r="J182" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6969,9 +6993,7 @@
       <c r="I183" t="n">
         <v>2364</v>
       </c>
-      <c r="J183" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7010,9 +7032,7 @@
       <c r="I184" t="n">
         <v>2365</v>
       </c>
-      <c r="J184" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7051,9 +7071,7 @@
       <c r="I185" t="n">
         <v>2365</v>
       </c>
-      <c r="J185" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7092,9 +7110,7 @@
       <c r="I186" t="n">
         <v>2367</v>
       </c>
-      <c r="J186" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7133,9 +7149,7 @@
       <c r="I187" t="n">
         <v>2369</v>
       </c>
-      <c r="J187" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7174,9 +7188,7 @@
       <c r="I188" t="n">
         <v>2369</v>
       </c>
-      <c r="J188" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7210,12 +7222,12 @@
         <v>-232649.1929642864</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>2352</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>2369</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7249,12 +7261,12 @@
         <v>-232518.0424642864</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>2352</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>2371</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7288,12 +7300,12 @@
         <v>-232518.0424642864</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>2352</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>2380</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7327,12 +7339,12 @@
         <v>-232018.0424642864</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>2352</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>2380</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7366,12 +7378,12 @@
         <v>-232018.0424642864</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>2352</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>2384</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7405,12 +7417,12 @@
         <v>-232018.0424642864</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>2352</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>2384</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7444,12 +7456,12 @@
         <v>-231492.8427642864</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>2352</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>2384</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7483,12 +7495,12 @@
         <v>-226344.6228642864</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>2352</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>2385</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7522,12 +7534,12 @@
         <v>-226344.6228642864</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>2352</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>2390</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7561,12 +7573,12 @@
         <v>-226636.4167642864</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>2352</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>2390</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7600,12 +7612,12 @@
         <v>-226636.4167642864</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>2352</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>2387</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7639,12 +7651,12 @@
         <v>-231929.7249642864</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>2352</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>2387</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7678,12 +7690,12 @@
         <v>-231929.7249642864</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>2352</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>2381</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7717,12 +7729,12 @@
         <v>-148111.0483642864</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>2352</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>2381</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7759,9 +7771,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7798,9 +7808,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7837,9 +7845,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7876,9 +7882,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7915,9 +7919,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7954,9 +7956,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7993,9 +7993,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8032,9 +8030,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8071,9 +8067,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8110,9 +8104,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8149,9 +8141,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8188,9 +8178,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8227,9 +8215,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8266,9 +8252,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8305,9 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8344,9 +8326,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8383,9 +8363,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8422,9 +8400,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8461,9 +8437,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8500,9 +8474,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8539,9 +8511,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8578,9 +8548,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8617,9 +8585,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8656,9 +8622,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8695,9 +8659,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8734,9 +8696,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8773,9 +8733,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8812,9 +8770,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8851,9 +8807,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8890,9 +8844,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8929,9 +8881,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8968,9 +8918,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9007,9 +8955,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9046,9 +8992,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9085,9 +9029,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9124,9 +9066,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9163,9 +9103,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9202,9 +9140,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9241,9 +9177,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9280,9 +9214,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9319,9 +9251,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9358,9 +9288,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9397,9 +9325,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9436,9 +9362,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9475,9 +9399,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9514,9 +9436,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9553,9 +9473,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9592,9 +9510,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9631,9 +9547,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9670,9 +9584,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9709,9 +9621,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9748,9 +9658,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9787,9 +9695,7 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9826,9 +9732,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9865,9 +9769,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9904,9 +9806,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9943,9 +9843,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9982,9 +9880,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10021,9 +9917,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10060,9 +9954,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10099,9 +9991,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10138,9 +10028,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10177,9 +10065,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10216,9 +10102,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10255,9 +10139,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10294,9 +10176,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10333,9 +10213,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10372,9 +10250,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10411,9 +10287,7 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10450,9 +10324,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10489,9 +10361,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10528,9 +10398,7 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10567,9 +10435,7 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10606,9 +10472,7 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10645,9 +10509,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10684,9 +10546,7 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10723,9 +10583,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10762,9 +10620,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10801,9 +10657,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10840,9 +10694,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10879,9 +10731,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10918,9 +10768,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10957,9 +10805,7 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10996,9 +10842,7 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11035,9 +10879,7 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11074,9 +10916,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11113,9 +10953,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11152,9 +10990,7 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11191,9 +11027,7 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11230,9 +11064,7 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11269,9 +11101,7 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11308,9 +11138,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11347,9 +11175,7 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11386,9 +11212,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11425,9 +11249,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11464,9 +11286,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11503,9 +11323,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11542,9 +11360,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11581,9 +11397,7 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11620,9 +11434,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11659,9 +11471,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11698,9 +11508,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11737,9 +11545,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11776,9 +11582,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11815,9 +11619,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11854,9 +11656,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11893,9 +11693,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11932,9 +11730,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11971,9 +11767,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12010,9 +11804,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12049,9 +11841,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12088,9 +11878,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12127,9 +11915,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12166,9 +11952,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12205,9 +11989,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12244,9 +12026,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12283,9 +12063,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12322,9 +12100,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12361,9 +12137,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12400,9 +12174,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12439,9 +12211,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12478,9 +12248,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12517,9 +12285,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12556,9 +12322,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12595,9 +12359,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12634,9 +12396,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12673,9 +12433,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12712,9 +12470,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12751,9 +12507,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12790,9 +12544,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12829,9 +12581,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12868,9 +12618,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12907,9 +12655,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12946,9 +12692,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12985,9 +12729,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13024,9 +12766,7 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13063,9 +12803,7 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13102,9 +12840,7 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13141,9 +12877,7 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13180,9 +12914,7 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13219,9 +12951,7 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13258,9 +12988,7 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13297,9 +13025,7 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13336,9 +13062,7 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13375,9 +13099,7 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13414,9 +13136,7 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13453,9 +13173,7 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13492,9 +13210,7 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13531,9 +13247,7 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13570,9 +13284,7 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13609,9 +13321,7 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13648,9 +13358,7 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13687,9 +13395,7 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13726,9 +13432,7 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13765,9 +13469,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13804,9 +13506,7 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13843,9 +13543,7 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13882,9 +13580,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13921,9 +13617,7 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13960,9 +13654,7 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13999,9 +13691,7 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14038,9 +13728,7 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14077,9 +13765,7 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14116,9 +13802,7 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14155,9 +13839,7 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14194,9 +13876,7 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14233,9 +13913,7 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14272,9 +13950,7 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14311,9 +13987,7 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14350,9 +14024,7 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14389,9 +14061,7 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14428,9 +14098,7 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14467,9 +14135,7 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14506,9 +14172,7 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14545,9 +14209,7 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14584,9 +14246,7 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14623,9 +14283,7 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14662,9 +14320,7 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14701,9 +14357,7 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14740,9 +14394,7 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14779,9 +14431,7 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14818,9 +14468,7 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14857,9 +14505,7 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14896,9 +14542,7 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14935,9 +14579,7 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14974,9 +14616,7 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15013,9 +14653,7 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15052,9 +14690,7 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15091,9 +14727,7 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15130,9 +14764,7 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15169,9 +14801,7 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15208,9 +14838,7 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15247,9 +14875,7 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15286,9 +14912,7 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15325,9 +14949,7 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15364,9 +14986,7 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15403,9 +15023,7 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15442,9 +15060,7 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15481,9 +15097,7 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15520,9 +15134,7 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15559,9 +15171,7 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15598,9 +15208,7 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15637,9 +15245,7 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15676,9 +15282,7 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15712,19 +15316,17 @@
         <v>165019.4659243517</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>2352</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L407" t="n">
-        <v>1.025612244897959</v>
+        <v>1</v>
       </c>
       <c r="M407" t="inlineStr"/>
     </row>
@@ -15751,11 +15353,15 @@
         <v>165019.4659243517</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15784,11 +15390,15 @@
         <v>165019.4659243517</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15817,11 +15427,15 @@
         <v>171016.1335243517</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15850,11 +15464,15 @@
         <v>173444.2126243517</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15883,11 +15501,15 @@
         <v>177980.2686243517</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15916,11 +15538,15 @@
         <v>183629.4988243517</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15949,11 +15575,15 @@
         <v>180638.5722573863</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15982,11 +15612,15 @@
         <v>182364.8365573864</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16015,11 +15649,15 @@
         <v>180016.2908573864</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16048,11 +15686,15 @@
         <v>180820.7967573864</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16081,11 +15723,15 @@
         <v>179205.7967573864</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16114,11 +15760,15 @@
         <v>179205.7967573864</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16147,11 +15797,15 @@
         <v>179205.7967573864</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16180,11 +15834,15 @@
         <v>179217.1516573864</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16213,11 +15871,15 @@
         <v>182958.0474573864</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16246,11 +15908,15 @@
         <v>182958.0474573864</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16279,11 +15945,15 @@
         <v>183892.3773573864</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16312,11 +15982,15 @@
         <v>183654.8863573864</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16349,7 +16023,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16378,11 +16056,15 @@
         <v>182927.1365573864</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16415,7 +16097,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16448,7 +16134,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16481,7 +16171,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16514,7 +16208,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16547,7 +16245,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16580,7 +16282,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16613,7 +16319,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16646,7 +16356,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16679,7 +16393,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16708,11 +16426,15 @@
         <v>182758.3431573863</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16745,7 +16467,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16774,11 +16500,15 @@
         <v>183189.9394573863</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16807,11 +16537,15 @@
         <v>184142.3619963158</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16840,11 +16574,15 @@
         <v>185582.3126963158</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16877,7 +16615,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16910,7 +16652,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16943,7 +16689,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16976,7 +16726,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17009,7 +16763,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17042,7 +16800,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17075,7 +16837,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17108,7 +16874,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17141,7 +16911,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17174,7 +16948,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17207,7 +16985,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17240,7 +17022,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17273,7 +17059,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17306,7 +17096,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17339,7 +17133,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17372,7 +17170,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17405,7 +17207,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17438,7 +17244,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17471,7 +17281,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17504,7 +17318,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17537,7 +17355,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17570,7 +17392,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17603,7 +17429,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17636,7 +17466,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17669,7 +17503,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17702,7 +17540,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17735,7 +17577,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17768,7 +17614,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17801,7 +17651,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17834,7 +17688,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17867,7 +17725,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17900,7 +17762,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17933,7 +17799,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17966,7 +17836,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17999,7 +17873,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18032,7 +17910,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18065,7 +17947,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18098,7 +17984,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18131,7 +18021,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18160,14 +18054,16 @@
         <v>226885.6434025363</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
-      <c r="L481" t="n">
-        <v>1</v>
-      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L481" t="inlineStr"/>
       <c r="M481" t="inlineStr"/>
     </row>
     <row r="482">
@@ -18193,7 +18089,7 @@
         <v>206107.9303025363</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -18226,7 +18122,7 @@
         <v>198263.3520025364</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -18259,7 +18155,7 @@
         <v>200317.3653025363</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -18292,7 +18188,7 @@
         <v>204966.2983227454</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -18325,7 +18221,7 @@
         <v>203192.8553242171</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -18358,7 +18254,7 @@
         <v>205967.7522162064</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -18391,7 +18287,7 @@
         <v>192012.4972011946</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -18424,7 +18320,7 @@
         <v>203705.6069011946</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -18457,7 +18353,7 @@
         <v>201711.0117011946</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18490,7 +18386,7 @@
         <v>204627.5605011946</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18523,7 +18419,7 @@
         <v>196460.5814011946</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -18556,7 +18452,7 @@
         <v>196460.5814011946</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -18589,7 +18485,7 @@
         <v>194746.1012011946</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -18622,7 +18518,7 @@
         <v>195055.9923011946</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18655,7 +18551,7 @@
         <v>190237.7591011946</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18688,7 +18584,7 @@
         <v>190530.9389011947</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18787,7 +18683,7 @@
         <v>193047.0048011947</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18820,7 +18716,7 @@
         <v>194105.5148011947</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -18853,7 +18749,7 @@
         <v>194105.5148011947</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18886,7 +18782,7 @@
         <v>192460.2944011947</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -18919,7 +18815,7 @@
         <v>192648.7432685998</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18952,7 +18848,7 @@
         <v>192953.1301685998</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18985,7 +18881,7 @@
         <v>193737.6322685998</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -19018,7 +18914,7 @@
         <v>193485.7399685998</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -19051,7 +18947,7 @@
         <v>190363.6773377</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -19084,7 +18980,7 @@
         <v>190115.1827377</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -19117,7 +19013,7 @@
         <v>189155.0005377</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -19150,7 +19046,7 @@
         <v>188742.0089377</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -19183,7 +19079,7 @@
         <v>185080.9527377</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -19216,7 +19112,7 @@
         <v>186938.2081377</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -19249,7 +19145,7 @@
         <v>187096.0125377</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19282,7 +19178,7 @@
         <v>184443.8840377</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19315,7 +19211,7 @@
         <v>185453.6821377</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
